--- a/統計管制與最佳化方法概論/homework/my_homework/HW4/24Spring-HW4.xlsx
+++ b/統計管制與最佳化方法概論/homework/my_homework/HW4/24Spring-HW4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen_\Documents\Classes\Semi SPCO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\owner\Documents\institute_information\統計管制與最佳化方法概論\homework\my_homework\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98E4B7E7-8E0F-447D-A057-2255C5EBE6B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A7CC2C-281E-45E4-8768-331451E8C93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{31B0CFA9-0FD1-449F-ACCE-972417C4B92F}"/>
+    <workbookView xWindow="2720" yWindow="4140" windowWidth="19200" windowHeight="11260" xr2:uid="{31B0CFA9-0FD1-449F-ACCE-972417C4B92F}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -236,7 +245,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -251,12 +260,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -571,48 +582,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4101A8-4D49-42B9-ACDC-0FB02D04C9E5}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="12" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="12" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="14"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="17"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="14"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
@@ -631,38 +644,40 @@
       <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="S2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -684,38 +699,50 @@
       <c r="G3" s="4">
         <v>353</v>
       </c>
-      <c r="H3" s="2">
-        <v>352</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="12">
+        <f>AVERAGE(C3:G3)</f>
+        <v>350</v>
+      </c>
+      <c r="I3" s="2">
         <v>352</v>
       </c>
       <c r="J3" s="3">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K3" s="3">
-        <v>351</v>
-      </c>
-      <c r="L3" s="4">
+        <v>353</v>
+      </c>
+      <c r="L3" s="3">
+        <v>351</v>
+      </c>
+      <c r="M3" s="4">
         <v>354</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="12">
+        <f>AVERAGE(I3:M3)</f>
+        <v>352.4</v>
+      </c>
+      <c r="O3" s="2">
         <v>355</v>
       </c>
-      <c r="N3" s="3">
-        <v>351</v>
-      </c>
-      <c r="O3" s="3">
+      <c r="P3" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q3" s="3">
         <v>356</v>
       </c>
-      <c r="P3" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q3" s="4">
+      <c r="R3" s="3">
+        <v>352</v>
+      </c>
+      <c r="S3" s="4">
         <v>359</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <f>AVERAGE(O3:S3)</f>
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -737,38 +764,50 @@
       <c r="G4" s="4">
         <v>353</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="12">
+        <f t="shared" ref="H4:H67" si="0">AVERAGE(C4:G4)</f>
+        <v>350</v>
+      </c>
+      <c r="I4" s="2">
         <v>354</v>
       </c>
-      <c r="I4" s="3">
-        <v>353</v>
-      </c>
       <c r="J4" s="3">
+        <v>353</v>
+      </c>
+      <c r="K4" s="3">
         <v>354</v>
       </c>
-      <c r="K4" s="3">
-        <v>352</v>
-      </c>
-      <c r="L4" s="4">
+      <c r="L4" s="3">
+        <v>352</v>
+      </c>
+      <c r="M4" s="4">
         <v>354</v>
       </c>
-      <c r="M4" s="2">
-        <v>353</v>
-      </c>
-      <c r="N4" s="3">
-        <v>351</v>
-      </c>
-      <c r="O4" s="3">
+      <c r="N4" s="12">
+        <f t="shared" ref="N4:N67" si="1">AVERAGE(I4:M4)</f>
+        <v>353.4</v>
+      </c>
+      <c r="O4" s="2">
+        <v>353</v>
+      </c>
+      <c r="P4" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q4" s="3">
         <v>359</v>
       </c>
-      <c r="P4" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q4" s="4">
+      <c r="R4" s="3">
+        <v>352</v>
+      </c>
+      <c r="S4" s="4">
         <v>354</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <f t="shared" ref="T4:T67" si="2">AVERAGE(O4:S4)</f>
+        <v>353.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -790,38 +829,50 @@
       <c r="G5" s="4">
         <v>351</v>
       </c>
-      <c r="H5" s="2">
-        <v>352</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>348.4</v>
+      </c>
+      <c r="I5" s="2">
         <v>352</v>
       </c>
       <c r="J5" s="3">
         <v>352</v>
       </c>
       <c r="K5" s="3">
-        <v>349</v>
-      </c>
-      <c r="L5" s="4">
-        <v>353</v>
-      </c>
-      <c r="M5" s="2">
-        <v>351</v>
-      </c>
-      <c r="N5" s="3">
-        <v>351</v>
-      </c>
-      <c r="O5" s="3">
+        <v>352</v>
+      </c>
+      <c r="L5" s="3">
+        <v>349</v>
+      </c>
+      <c r="M5" s="4">
+        <v>353</v>
+      </c>
+      <c r="N5" s="12">
+        <f t="shared" si="1"/>
+        <v>351.6</v>
+      </c>
+      <c r="O5" s="2">
+        <v>351</v>
+      </c>
+      <c r="P5" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q5" s="3">
         <v>357</v>
       </c>
-      <c r="P5" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="R5" s="3">
+        <v>352</v>
+      </c>
+      <c r="S5" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <f t="shared" si="2"/>
+        <v>353.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,38 +894,50 @@
       <c r="G6" s="4">
         <v>353</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>351.6</v>
+      </c>
+      <c r="I6" s="2">
         <v>355</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>356</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>355</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>354</v>
       </c>
-      <c r="L6" s="4">
+      <c r="M6" s="4">
         <v>356</v>
       </c>
-      <c r="M6" s="2">
-        <v>353</v>
-      </c>
-      <c r="N6" s="3">
+      <c r="N6" s="12">
+        <f t="shared" si="1"/>
+        <v>355.2</v>
+      </c>
+      <c r="O6" s="2">
+        <v>353</v>
+      </c>
+      <c r="P6" s="3">
         <v>357</v>
       </c>
-      <c r="O6" s="3">
+      <c r="Q6" s="3">
         <v>362</v>
       </c>
-      <c r="P6" s="3">
+      <c r="R6" s="3">
         <v>355</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="S6" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <f t="shared" si="2"/>
+        <v>357.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
@@ -896,38 +959,50 @@
       <c r="G7" s="4">
         <v>351</v>
       </c>
-      <c r="H7" s="3">
-        <v>351</v>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
       </c>
       <c r="I7" s="3">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J7" s="3">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K7" s="3">
-        <v>350</v>
-      </c>
-      <c r="L7" s="4">
-        <v>353</v>
-      </c>
-      <c r="M7" s="2">
-        <v>350</v>
-      </c>
-      <c r="N7" s="3">
-        <v>353</v>
-      </c>
-      <c r="O7" s="3">
+        <v>351</v>
+      </c>
+      <c r="L7" s="3">
+        <v>350</v>
+      </c>
+      <c r="M7" s="4">
+        <v>353</v>
+      </c>
+      <c r="N7" s="12">
+        <f t="shared" si="1"/>
+        <v>351.4</v>
+      </c>
+      <c r="O7" s="2">
+        <v>350</v>
+      </c>
+      <c r="P7" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q7" s="3">
         <v>356</v>
       </c>
-      <c r="P7" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q7" s="4">
+      <c r="R7" s="3">
+        <v>353</v>
+      </c>
+      <c r="S7" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <f t="shared" si="2"/>
+        <v>353.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -949,38 +1024,50 @@
       <c r="G8" s="4">
         <v>350</v>
       </c>
-      <c r="H8" s="2">
-        <v>350</v>
-      </c>
-      <c r="I8" s="3">
-        <v>352</v>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>347.8</v>
+      </c>
+      <c r="I8" s="2">
+        <v>350</v>
       </c>
       <c r="J8" s="3">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K8" s="3">
-        <v>348</v>
-      </c>
-      <c r="L8" s="4">
-        <v>352</v>
-      </c>
-      <c r="M8" s="2">
-        <v>351</v>
-      </c>
-      <c r="N8" s="3">
-        <v>351</v>
-      </c>
-      <c r="O8" s="3">
-        <v>353</v>
+        <v>350</v>
+      </c>
+      <c r="L8" s="3">
+        <v>348</v>
+      </c>
+      <c r="M8" s="4">
+        <v>352</v>
+      </c>
+      <c r="N8" s="12">
+        <f t="shared" si="1"/>
+        <v>350.4</v>
+      </c>
+      <c r="O8" s="2">
+        <v>351</v>
       </c>
       <c r="P8" s="3">
         <v>351</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="3">
+        <v>353</v>
+      </c>
+      <c r="R8" s="3">
+        <v>351</v>
+      </c>
+      <c r="S8" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <f t="shared" si="2"/>
+        <v>352.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1002,38 +1089,50 @@
       <c r="G9" s="4">
         <v>353</v>
       </c>
-      <c r="H9" s="2">
-        <v>354</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>350.8</v>
+      </c>
+      <c r="I9" s="2">
         <v>354</v>
       </c>
       <c r="J9" s="3">
         <v>354</v>
       </c>
       <c r="K9" s="3">
-        <v>351</v>
-      </c>
-      <c r="L9" s="4">
+        <v>354</v>
+      </c>
+      <c r="L9" s="3">
+        <v>351</v>
+      </c>
+      <c r="M9" s="4">
         <v>355</v>
       </c>
-      <c r="M9" s="2">
-        <v>351</v>
-      </c>
-      <c r="N9" s="3">
-        <v>352</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="N9" s="12">
+        <f t="shared" si="1"/>
+        <v>353.6</v>
+      </c>
+      <c r="O9" s="2">
+        <v>351</v>
+      </c>
+      <c r="P9" s="3">
+        <v>352</v>
+      </c>
+      <c r="Q9" s="3">
         <v>360</v>
       </c>
-      <c r="P9" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="3">
+        <v>353</v>
+      </c>
+      <c r="S9" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <f t="shared" si="2"/>
+        <v>355.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1055,38 +1154,50 @@
       <c r="G10" s="4">
         <v>351</v>
       </c>
-      <c r="H10" s="2">
-        <v>352</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
+      </c>
+      <c r="I10" s="2">
         <v>352</v>
       </c>
       <c r="J10" s="3">
         <v>352</v>
       </c>
       <c r="K10" s="3">
-        <v>350</v>
-      </c>
-      <c r="L10" s="4">
-        <v>353</v>
-      </c>
-      <c r="M10" s="2">
-        <v>352</v>
-      </c>
-      <c r="N10" s="3">
-        <v>350</v>
-      </c>
-      <c r="O10" s="3">
+        <v>352</v>
+      </c>
+      <c r="L10" s="3">
+        <v>350</v>
+      </c>
+      <c r="M10" s="4">
+        <v>353</v>
+      </c>
+      <c r="N10" s="12">
+        <f t="shared" si="1"/>
+        <v>351.8</v>
+      </c>
+      <c r="O10" s="2">
+        <v>352</v>
+      </c>
+      <c r="P10" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q10" s="3">
         <v>357</v>
       </c>
-      <c r="P10" s="3">
-        <v>350</v>
-      </c>
-      <c r="Q10" s="4">
+      <c r="R10" s="3">
+        <v>350</v>
+      </c>
+      <c r="S10" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <f t="shared" si="2"/>
+        <v>353.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1108,38 +1219,50 @@
       <c r="G11" s="4">
         <v>353</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>350.8</v>
+      </c>
+      <c r="I11" s="2">
         <v>354</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>354</v>
       </c>
-      <c r="J11" s="3">
-        <v>353</v>
-      </c>
       <c r="K11" s="3">
-        <v>352</v>
-      </c>
-      <c r="L11" s="4">
+        <v>353</v>
+      </c>
+      <c r="L11" s="3">
+        <v>352</v>
+      </c>
+      <c r="M11" s="4">
         <v>354</v>
       </c>
-      <c r="M11" s="2">
-        <v>353</v>
-      </c>
-      <c r="N11" s="3">
-        <v>353</v>
-      </c>
-      <c r="O11" s="3">
+      <c r="N11" s="12">
+        <f t="shared" si="1"/>
+        <v>353.4</v>
+      </c>
+      <c r="O11" s="2">
+        <v>353</v>
+      </c>
+      <c r="P11" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q11" s="3">
         <v>359</v>
       </c>
-      <c r="P11" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="3">
+        <v>352</v>
+      </c>
+      <c r="S11" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -1161,38 +1284,50 @@
       <c r="G12" s="4">
         <v>358</v>
       </c>
-      <c r="H12" s="5">
-        <v>352</v>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>354.2</v>
       </c>
       <c r="I12" s="5">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J12" s="5">
         <v>353</v>
       </c>
       <c r="K12" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L12" s="5">
+        <v>351</v>
+      </c>
+      <c r="M12" s="5">
         <v>354</v>
       </c>
-      <c r="M12" s="2">
-        <v>353</v>
-      </c>
-      <c r="N12" s="3">
-        <v>353</v>
-      </c>
-      <c r="O12" s="3">
+      <c r="N12" s="12">
+        <f t="shared" si="1"/>
+        <v>352.6</v>
+      </c>
+      <c r="O12" s="2">
+        <v>353</v>
+      </c>
+      <c r="P12" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q12" s="3">
         <v>355</v>
       </c>
-      <c r="P12" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="3">
+        <v>351</v>
+      </c>
+      <c r="S12" s="4">
         <v>360</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <f t="shared" si="2"/>
+        <v>354.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1214,38 +1349,50 @@
       <c r="G13" s="4">
         <v>357</v>
       </c>
-      <c r="H13" s="5">
-        <v>353</v>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>353.4</v>
       </c>
       <c r="I13" s="5">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J13" s="5">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K13" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L13" s="5">
-        <v>353</v>
-      </c>
-      <c r="M13" s="2">
-        <v>353</v>
-      </c>
-      <c r="N13" s="3">
-        <v>353</v>
-      </c>
-      <c r="O13" s="3">
+        <v>351</v>
+      </c>
+      <c r="M13" s="5">
+        <v>353</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="1"/>
+        <v>352.4</v>
+      </c>
+      <c r="O13" s="2">
+        <v>353</v>
+      </c>
+      <c r="P13" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q13" s="3">
         <v>354</v>
       </c>
-      <c r="P13" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q13" s="4">
+      <c r="R13" s="3">
+        <v>351</v>
+      </c>
+      <c r="S13" s="4">
         <v>359</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -1267,38 +1414,50 @@
       <c r="G14" s="4">
         <v>349</v>
       </c>
-      <c r="H14" s="5">
-        <v>351</v>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>347.6</v>
       </c>
       <c r="I14" s="5">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J14" s="5">
         <v>352</v>
       </c>
       <c r="K14" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L14" s="5">
-        <v>353</v>
-      </c>
-      <c r="M14" s="2">
-        <v>349</v>
-      </c>
-      <c r="N14" s="3">
-        <v>350</v>
-      </c>
-      <c r="O14" s="3">
+        <v>351</v>
+      </c>
+      <c r="M14" s="5">
+        <v>353</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="1"/>
+        <v>351.8</v>
+      </c>
+      <c r="O14" s="2">
+        <v>349</v>
+      </c>
+      <c r="P14" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q14" s="3">
         <v>359</v>
       </c>
-      <c r="P14" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q14" s="4">
+      <c r="R14" s="3">
+        <v>352</v>
+      </c>
+      <c r="S14" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <f t="shared" si="2"/>
+        <v>353.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
@@ -1320,38 +1479,50 @@
       <c r="G15" s="4">
         <v>350</v>
       </c>
-      <c r="H15" s="5">
-        <v>352</v>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>348.8</v>
       </c>
       <c r="I15" s="5">
         <v>352</v>
       </c>
       <c r="J15" s="5">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K15" s="5">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="L15" s="5">
-        <v>351</v>
-      </c>
-      <c r="M15" s="2">
-        <v>350</v>
-      </c>
-      <c r="N15" s="3">
-        <v>351</v>
-      </c>
-      <c r="O15" s="3">
+        <v>348</v>
+      </c>
+      <c r="M15" s="5">
+        <v>351</v>
+      </c>
+      <c r="N15" s="12">
+        <f t="shared" si="1"/>
+        <v>350.8</v>
+      </c>
+      <c r="O15" s="2">
+        <v>350</v>
+      </c>
+      <c r="P15" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q15" s="3">
         <v>361</v>
       </c>
-      <c r="P15" s="3">
-        <v>350</v>
-      </c>
-      <c r="Q15" s="4">
+      <c r="R15" s="3">
+        <v>350</v>
+      </c>
+      <c r="S15" s="4">
         <v>359</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <f t="shared" si="2"/>
+        <v>354.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -1373,38 +1544,50 @@
       <c r="G16" s="4">
         <v>351</v>
       </c>
-      <c r="H16" s="5">
-        <v>352</v>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>348.8</v>
       </c>
       <c r="I16" s="5">
         <v>352</v>
       </c>
       <c r="J16" s="5">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K16" s="5">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L16" s="5">
-        <v>352</v>
-      </c>
-      <c r="M16" s="2">
-        <v>349</v>
-      </c>
-      <c r="N16" s="3">
-        <v>351</v>
-      </c>
-      <c r="O16" s="3">
+        <v>353</v>
+      </c>
+      <c r="M16" s="5">
+        <v>352</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" si="1"/>
+        <v>351.8</v>
+      </c>
+      <c r="O16" s="2">
+        <v>349</v>
+      </c>
+      <c r="P16" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q16" s="3">
         <v>360</v>
       </c>
-      <c r="P16" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q16" s="4">
+      <c r="R16" s="3">
+        <v>351</v>
+      </c>
+      <c r="S16" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>353.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1426,38 +1609,50 @@
       <c r="G17" s="4">
         <v>351</v>
       </c>
-      <c r="H17" s="5">
-        <v>352</v>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>349</v>
       </c>
       <c r="I17" s="5">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J17" s="5">
         <v>353</v>
       </c>
       <c r="K17" s="5">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L17" s="5">
+        <v>351</v>
+      </c>
+      <c r="M17" s="5">
         <v>354</v>
       </c>
-      <c r="M17" s="2">
-        <v>351</v>
-      </c>
-      <c r="N17" s="3">
-        <v>351</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="N17" s="12">
+        <f t="shared" si="1"/>
+        <v>352.6</v>
+      </c>
+      <c r="O17" s="2">
+        <v>351</v>
+      </c>
+      <c r="P17" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q17" s="3">
         <v>360</v>
       </c>
-      <c r="P17" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q17" s="4">
+      <c r="R17" s="3">
+        <v>351</v>
+      </c>
+      <c r="S17" s="4">
         <v>360</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1479,38 +1674,50 @@
       <c r="G18" s="4">
         <v>350</v>
       </c>
-      <c r="H18" s="5">
-        <v>351</v>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>348.4</v>
       </c>
       <c r="I18" s="5">
         <v>351</v>
       </c>
       <c r="J18" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K18" s="5">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L18" s="5">
-        <v>351</v>
-      </c>
-      <c r="M18" s="2">
-        <v>349</v>
-      </c>
-      <c r="N18" s="3">
-        <v>350</v>
-      </c>
-      <c r="O18" s="3">
+        <v>352</v>
+      </c>
+      <c r="M18" s="5">
+        <v>351</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="O18" s="2">
+        <v>349</v>
+      </c>
+      <c r="P18" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q18" s="3">
         <v>359</v>
       </c>
-      <c r="P18" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q18" s="4">
+      <c r="R18" s="3">
+        <v>351</v>
+      </c>
+      <c r="S18" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>353.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1532,8 +1739,9 @@
       <c r="G19" s="4">
         <v>351</v>
       </c>
-      <c r="H19" s="5">
-        <v>352</v>
+      <c r="H19" s="12">
+        <f t="shared" si="0"/>
+        <v>348.8</v>
       </c>
       <c r="I19" s="5">
         <v>352</v>
@@ -1542,28 +1750,39 @@
         <v>352</v>
       </c>
       <c r="K19" s="5">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L19" s="5">
         <v>354</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="5">
+        <v>354</v>
+      </c>
+      <c r="N19" s="12">
+        <f t="shared" si="1"/>
+        <v>352.8</v>
+      </c>
+      <c r="O19" s="2">
         <v>369</v>
       </c>
-      <c r="N19" s="3">
+      <c r="P19" s="3">
         <v>366</v>
       </c>
-      <c r="O19" s="3">
+      <c r="Q19" s="3">
         <v>374</v>
       </c>
-      <c r="P19" s="3">
+      <c r="R19" s="3">
         <v>369</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="S19" s="4">
         <v>374</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>370.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -1585,38 +1804,50 @@
       <c r="G20" s="4">
         <v>356</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
+        <v>355.6</v>
+      </c>
+      <c r="I20" s="5">
         <v>338</v>
       </c>
-      <c r="I20" s="5">
+      <c r="J20" s="5">
         <v>339</v>
       </c>
-      <c r="J20" s="5">
+      <c r="K20" s="5">
         <v>338</v>
       </c>
-      <c r="K20" s="5">
+      <c r="L20" s="5">
         <v>342</v>
       </c>
-      <c r="L20" s="5">
+      <c r="M20" s="5">
         <v>340</v>
       </c>
-      <c r="M20" s="2">
+      <c r="N20" s="12">
+        <f t="shared" si="1"/>
+        <v>339.4</v>
+      </c>
+      <c r="O20" s="2">
         <v>356</v>
       </c>
-      <c r="N20" s="3">
-        <v>351</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q20" s="3">
         <v>361</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>357</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="S20" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>357.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1638,38 +1869,50 @@
       <c r="G21" s="4">
         <v>356</v>
       </c>
-      <c r="H21" s="5">
-        <v>346</v>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
       </c>
       <c r="I21" s="5">
+        <v>346</v>
+      </c>
+      <c r="J21" s="5">
         <v>344</v>
       </c>
-      <c r="J21" s="5">
+      <c r="K21" s="5">
         <v>345</v>
       </c>
-      <c r="K21" s="5">
-        <v>347</v>
-      </c>
       <c r="L21" s="5">
+        <v>347</v>
+      </c>
+      <c r="M21" s="5">
         <v>345</v>
       </c>
-      <c r="M21" s="2">
+      <c r="N21" s="12">
+        <f t="shared" si="1"/>
+        <v>345.4</v>
+      </c>
+      <c r="O21" s="2">
         <v>355</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>354</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>366</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>356</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="S21" s="4">
         <v>366</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>359.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1691,11 +1934,12 @@
       <c r="G22" s="4">
         <v>353</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
+        <v>348.2</v>
+      </c>
+      <c r="I22" s="5">
         <v>344</v>
-      </c>
-      <c r="I22" s="5">
-        <v>343</v>
       </c>
       <c r="J22" s="5">
         <v>343</v>
@@ -1704,25 +1948,36 @@
         <v>343</v>
       </c>
       <c r="L22" s="5">
+        <v>343</v>
+      </c>
+      <c r="M22" s="5">
         <v>345</v>
       </c>
-      <c r="M22" s="2">
-        <v>353</v>
-      </c>
-      <c r="N22" s="3">
-        <v>352</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="12">
+        <f t="shared" si="1"/>
+        <v>343.6</v>
+      </c>
+      <c r="O22" s="2">
+        <v>353</v>
+      </c>
+      <c r="P22" s="3">
+        <v>352</v>
+      </c>
+      <c r="Q22" s="3">
         <v>363</v>
       </c>
-      <c r="P22" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="3">
+        <v>353</v>
+      </c>
+      <c r="S22" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>356.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1744,38 +1999,50 @@
       <c r="G23" s="4">
         <v>357</v>
       </c>
-      <c r="H23" s="5">
-        <v>345</v>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>351</v>
       </c>
       <c r="I23" s="5">
         <v>345</v>
       </c>
       <c r="J23" s="5">
+        <v>345</v>
+      </c>
+      <c r="K23" s="5">
         <v>344</v>
       </c>
-      <c r="K23" s="5">
-        <v>346</v>
-      </c>
       <c r="L23" s="5">
+        <v>346</v>
+      </c>
+      <c r="M23" s="5">
         <v>345</v>
       </c>
-      <c r="M23" s="2">
+      <c r="N23" s="12">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="O23" s="2">
         <v>354</v>
       </c>
-      <c r="N23" s="3">
-        <v>353</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q23" s="3">
         <v>364</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>354</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="S23" s="4">
         <v>364</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>357.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1797,38 +2064,50 @@
       <c r="G24" s="4">
         <v>356</v>
       </c>
-      <c r="H24" s="5">
-        <v>346</v>
+      <c r="H24" s="12">
+        <f t="shared" si="0"/>
+        <v>351.6</v>
       </c>
       <c r="I24" s="5">
         <v>346</v>
       </c>
       <c r="J24" s="5">
+        <v>346</v>
+      </c>
+      <c r="K24" s="5">
         <v>345</v>
       </c>
-      <c r="K24" s="5">
-        <v>346</v>
-      </c>
       <c r="L24" s="5">
-        <v>347</v>
-      </c>
-      <c r="M24" s="2">
+        <v>346</v>
+      </c>
+      <c r="M24" s="5">
+        <v>347</v>
+      </c>
+      <c r="N24" s="12">
+        <f t="shared" si="1"/>
+        <v>346</v>
+      </c>
+      <c r="O24" s="2">
         <v>354</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>354</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>360</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>356</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="S24" s="4">
         <v>360</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>356.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
@@ -1850,38 +2129,50 @@
       <c r="G25" s="4">
         <v>358</v>
       </c>
-      <c r="H25" s="5">
-        <v>348</v>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
+        <v>352</v>
       </c>
       <c r="I25" s="5">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J25" s="5">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K25" s="5">
         <v>346</v>
       </c>
       <c r="L25" s="5">
-        <v>350</v>
-      </c>
-      <c r="M25" s="2">
+        <v>346</v>
+      </c>
+      <c r="M25" s="5">
+        <v>350</v>
+      </c>
+      <c r="N25" s="12">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="O25" s="2">
         <v>358</v>
       </c>
-      <c r="N25" s="3">
+      <c r="P25" s="3">
         <v>356</v>
       </c>
-      <c r="O25" s="3">
+      <c r="Q25" s="3">
         <v>366</v>
       </c>
-      <c r="P25" s="3">
+      <c r="R25" s="3">
         <v>357</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="S25" s="4">
         <v>366</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>360.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>1</v>
       </c>
@@ -1903,38 +2194,50 @@
       <c r="G26" s="4">
         <v>358</v>
       </c>
-      <c r="H26" s="5">
-        <v>348</v>
+      <c r="H26" s="12">
+        <f t="shared" si="0"/>
+        <v>351.8</v>
       </c>
       <c r="I26" s="5">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J26" s="5">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K26" s="5">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L26" s="5">
-        <v>350</v>
-      </c>
-      <c r="M26" s="2">
+        <v>347</v>
+      </c>
+      <c r="M26" s="5">
+        <v>350</v>
+      </c>
+      <c r="N26" s="12">
+        <f t="shared" si="1"/>
+        <v>348.2</v>
+      </c>
+      <c r="O26" s="2">
         <v>358</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>355</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>365</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>357</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="S26" s="4">
         <v>366</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>360.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -1956,38 +2259,50 @@
       <c r="G27" s="4">
         <v>358</v>
       </c>
-      <c r="H27" s="5">
-        <v>348</v>
+      <c r="H27" s="12">
+        <f t="shared" si="0"/>
+        <v>353.2</v>
       </c>
       <c r="I27" s="5">
         <v>348</v>
       </c>
       <c r="J27" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="K27" s="5">
         <v>346</v>
       </c>
       <c r="L27" s="5">
-        <v>349</v>
-      </c>
-      <c r="M27" s="2">
+        <v>346</v>
+      </c>
+      <c r="M27" s="5">
+        <v>349</v>
+      </c>
+      <c r="N27" s="12">
+        <f t="shared" si="1"/>
+        <v>347.4</v>
+      </c>
+      <c r="O27" s="2">
         <v>356</v>
       </c>
-      <c r="N27" s="3">
-        <v>353</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q27" s="3">
         <v>365</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>356</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="S27" s="4">
         <v>364</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T27">
+        <f t="shared" si="2"/>
+        <v>358.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
@@ -2009,38 +2324,50 @@
       <c r="G28" s="4">
         <v>353</v>
       </c>
-      <c r="H28" s="5">
-        <v>344</v>
+      <c r="H28" s="12">
+        <f t="shared" si="0"/>
+        <v>350.4</v>
       </c>
       <c r="I28" s="5">
         <v>344</v>
       </c>
       <c r="J28" s="5">
+        <v>344</v>
+      </c>
+      <c r="K28" s="5">
         <v>345</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5">
         <v>343</v>
       </c>
-      <c r="L28" s="5">
-        <v>346</v>
-      </c>
-      <c r="M28" s="2">
+      <c r="M28" s="5">
+        <v>346</v>
+      </c>
+      <c r="N28" s="12">
+        <f t="shared" si="1"/>
+        <v>344.4</v>
+      </c>
+      <c r="O28" s="2">
         <v>333</v>
       </c>
-      <c r="N28" s="3">
-        <v>346</v>
-      </c>
-      <c r="O28" s="3">
+      <c r="P28" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q28" s="3">
         <v>338</v>
       </c>
-      <c r="P28" s="3">
+      <c r="R28" s="3">
         <v>335</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="S28" s="4">
         <v>338</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -2062,38 +2389,50 @@
       <c r="G29" s="4">
         <v>350</v>
       </c>
-      <c r="H29" s="5">
-        <v>337</v>
+      <c r="H29" s="12">
+        <f t="shared" si="0"/>
+        <v>348.6</v>
       </c>
       <c r="I29" s="5">
         <v>337</v>
       </c>
       <c r="J29" s="5">
+        <v>337</v>
+      </c>
+      <c r="K29" s="5">
         <v>338</v>
       </c>
-      <c r="K29" s="5">
+      <c r="L29" s="5">
         <v>336</v>
       </c>
-      <c r="L29" s="5">
+      <c r="M29" s="5">
         <v>339</v>
       </c>
-      <c r="M29" s="2">
-        <v>351</v>
-      </c>
-      <c r="N29" s="3">
-        <v>349</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="N29" s="12">
+        <f t="shared" si="1"/>
+        <v>337.4</v>
+      </c>
+      <c r="O29" s="2">
+        <v>351</v>
+      </c>
+      <c r="P29" s="3">
+        <v>349</v>
+      </c>
+      <c r="Q29" s="3">
         <v>361</v>
       </c>
-      <c r="P29" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q29" s="4">
+      <c r="R29" s="3">
+        <v>351</v>
+      </c>
+      <c r="S29" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T29">
+        <f t="shared" si="2"/>
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2115,38 +2454,50 @@
       <c r="G30" s="4">
         <v>355</v>
       </c>
-      <c r="H30" s="5">
-        <v>344</v>
+      <c r="H30" s="12">
+        <f t="shared" si="0"/>
+        <v>351.2</v>
       </c>
       <c r="I30" s="5">
         <v>344</v>
       </c>
       <c r="J30" s="5">
+        <v>344</v>
+      </c>
+      <c r="K30" s="5">
         <v>345</v>
       </c>
-      <c r="K30" s="5">
+      <c r="L30" s="5">
         <v>344</v>
       </c>
-      <c r="L30" s="5">
-        <v>346</v>
-      </c>
-      <c r="M30" s="2">
-        <v>350</v>
-      </c>
-      <c r="N30" s="3">
-        <v>349</v>
-      </c>
-      <c r="O30" s="3">
-        <v>348</v>
+      <c r="M30" s="5">
+        <v>346</v>
+      </c>
+      <c r="N30" s="12">
+        <f t="shared" si="1"/>
+        <v>344.6</v>
+      </c>
+      <c r="O30" s="2">
+        <v>350</v>
       </c>
       <c r="P30" s="3">
         <v>349</v>
       </c>
-      <c r="Q30" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q30" s="3">
+        <v>348</v>
+      </c>
+      <c r="R30" s="3">
+        <v>349</v>
+      </c>
+      <c r="S30" s="4">
+        <v>350</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="2"/>
+        <v>349.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
@@ -2168,38 +2519,50 @@
       <c r="G31" s="4">
         <v>355</v>
       </c>
-      <c r="H31" s="5">
-        <v>345</v>
+      <c r="H31" s="12">
+        <f t="shared" si="0"/>
+        <v>350.6</v>
       </c>
       <c r="I31" s="5">
         <v>345</v>
       </c>
       <c r="J31" s="5">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="K31" s="5">
+        <v>346</v>
+      </c>
+      <c r="L31" s="5">
         <v>345</v>
       </c>
-      <c r="L31" s="5">
-        <v>348</v>
-      </c>
-      <c r="M31" s="2">
-        <v>352</v>
-      </c>
-      <c r="N31" s="3">
-        <v>352</v>
-      </c>
-      <c r="O31" s="3">
+      <c r="M31" s="5">
+        <v>348</v>
+      </c>
+      <c r="N31" s="12">
+        <f t="shared" si="1"/>
+        <v>345.8</v>
+      </c>
+      <c r="O31" s="2">
+        <v>352</v>
+      </c>
+      <c r="P31" s="3">
+        <v>352</v>
+      </c>
+      <c r="Q31" s="3">
         <v>364</v>
       </c>
-      <c r="P31" s="3">
+      <c r="R31" s="3">
         <v>354</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="S31" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T31">
+        <f t="shared" si="2"/>
+        <v>356.6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -2221,11 +2584,12 @@
       <c r="G32" s="4">
         <v>354</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="12">
+        <f t="shared" si="0"/>
+        <v>351.4</v>
+      </c>
+      <c r="I32" s="5">
         <v>344</v>
-      </c>
-      <c r="I32" s="5">
-        <v>345</v>
       </c>
       <c r="J32" s="5">
         <v>345</v>
@@ -2234,25 +2598,36 @@
         <v>345</v>
       </c>
       <c r="L32" s="5">
-        <v>346</v>
-      </c>
-      <c r="M32" s="2">
-        <v>351</v>
-      </c>
-      <c r="N32" s="3">
+        <v>345</v>
+      </c>
+      <c r="M32" s="5">
+        <v>346</v>
+      </c>
+      <c r="N32" s="12">
+        <f t="shared" si="1"/>
+        <v>345</v>
+      </c>
+      <c r="O32" s="2">
+        <v>351</v>
+      </c>
+      <c r="P32" s="3">
         <v>357</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>363</v>
       </c>
-      <c r="P32" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="3">
+        <v>353</v>
+      </c>
+      <c r="S32" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T32">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>1</v>
       </c>
@@ -2274,8 +2649,9 @@
       <c r="G33" s="4">
         <v>354</v>
       </c>
-      <c r="H33" s="5">
-        <v>345</v>
+      <c r="H33" s="12">
+        <f t="shared" si="0"/>
+        <v>350.6</v>
       </c>
       <c r="I33" s="5">
         <v>345</v>
@@ -2284,28 +2660,39 @@
         <v>345</v>
       </c>
       <c r="K33" s="5">
+        <v>345</v>
+      </c>
+      <c r="L33" s="5">
         <v>344</v>
       </c>
-      <c r="L33" s="5">
-        <v>347</v>
-      </c>
-      <c r="M33" s="2">
-        <v>352</v>
-      </c>
-      <c r="N33" s="3">
-        <v>352</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="M33" s="5">
+        <v>347</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="1"/>
+        <v>345.2</v>
+      </c>
+      <c r="O33" s="2">
+        <v>352</v>
+      </c>
+      <c r="P33" s="3">
+        <v>352</v>
+      </c>
+      <c r="Q33" s="3">
         <v>364</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>354</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="S33" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T33">
+        <f t="shared" si="2"/>
+        <v>356.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>1</v>
       </c>
@@ -2327,38 +2714,50 @@
       <c r="G34" s="4">
         <v>355</v>
       </c>
-      <c r="H34" s="5">
-        <v>349</v>
+      <c r="H34" s="12">
+        <f t="shared" si="0"/>
+        <v>351.4</v>
       </c>
       <c r="I34" s="5">
         <v>349</v>
       </c>
       <c r="J34" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K34" s="5">
         <v>348</v>
       </c>
       <c r="L34" s="5">
-        <v>350</v>
-      </c>
-      <c r="M34" s="2">
-        <v>349</v>
-      </c>
-      <c r="N34" s="3">
-        <v>351</v>
-      </c>
-      <c r="O34" s="3">
+        <v>348</v>
+      </c>
+      <c r="M34" s="5">
+        <v>350</v>
+      </c>
+      <c r="N34" s="12">
+        <f t="shared" si="1"/>
+        <v>348.8</v>
+      </c>
+      <c r="O34" s="2">
+        <v>349</v>
+      </c>
+      <c r="P34" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q34" s="3">
         <v>363</v>
       </c>
-      <c r="P34" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="3">
+        <v>352</v>
+      </c>
+      <c r="S34" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T34">
+        <f t="shared" si="2"/>
+        <v>355.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -2380,38 +2779,50 @@
       <c r="G35" s="4">
         <v>354</v>
       </c>
-      <c r="H35" s="5">
-        <v>349</v>
+      <c r="H35" s="12">
+        <f t="shared" si="0"/>
+        <v>350.4</v>
       </c>
       <c r="I35" s="5">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J35" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K35" s="5">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L35" s="5">
-        <v>349</v>
-      </c>
-      <c r="M35" s="2">
-        <v>349</v>
-      </c>
-      <c r="N35" s="3">
-        <v>351</v>
-      </c>
-      <c r="O35" s="3">
+        <v>350</v>
+      </c>
+      <c r="M35" s="5">
+        <v>349</v>
+      </c>
+      <c r="N35" s="12">
+        <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="O35" s="2">
+        <v>349</v>
+      </c>
+      <c r="P35" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q35" s="3">
         <v>362</v>
       </c>
-      <c r="P35" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="3">
+        <v>351</v>
+      </c>
+      <c r="S35" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T35">
+        <f t="shared" si="2"/>
+        <v>354.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -2433,8 +2844,9 @@
       <c r="G36" s="4">
         <v>353</v>
       </c>
-      <c r="H36" s="5">
-        <v>348</v>
+      <c r="H36" s="12">
+        <f t="shared" si="0"/>
+        <v>349.6</v>
       </c>
       <c r="I36" s="5">
         <v>348</v>
@@ -2443,28 +2855,39 @@
         <v>348</v>
       </c>
       <c r="K36" s="5">
+        <v>348</v>
+      </c>
+      <c r="L36" s="5">
         <v>345</v>
       </c>
-      <c r="L36" s="5">
-        <v>349</v>
-      </c>
-      <c r="M36" s="2">
-        <v>347</v>
-      </c>
-      <c r="N36" s="3">
-        <v>348</v>
-      </c>
-      <c r="O36" s="3">
+      <c r="M36" s="5">
+        <v>349</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" si="1"/>
+        <v>347.6</v>
+      </c>
+      <c r="O36" s="2">
+        <v>347</v>
+      </c>
+      <c r="P36" s="3">
+        <v>348</v>
+      </c>
+      <c r="Q36" s="3">
         <v>361</v>
       </c>
-      <c r="P36" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q36" s="4">
+      <c r="R36" s="3">
+        <v>349</v>
+      </c>
+      <c r="S36" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T36">
+        <f t="shared" si="2"/>
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -2486,38 +2909,50 @@
       <c r="G37" s="4">
         <v>353</v>
       </c>
-      <c r="H37" s="5">
-        <v>348</v>
+      <c r="H37" s="12">
+        <f t="shared" si="0"/>
+        <v>349.8</v>
       </c>
       <c r="I37" s="5">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J37" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K37" s="5">
+        <v>348</v>
+      </c>
+      <c r="L37" s="5">
         <v>345</v>
       </c>
-      <c r="L37" s="5">
-        <v>348</v>
-      </c>
-      <c r="M37" s="2">
-        <v>347</v>
-      </c>
-      <c r="N37" s="3">
-        <v>348</v>
-      </c>
-      <c r="O37" s="3">
+      <c r="M37" s="5">
+        <v>348</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" si="1"/>
+        <v>347.6</v>
+      </c>
+      <c r="O37" s="2">
+        <v>347</v>
+      </c>
+      <c r="P37" s="3">
+        <v>348</v>
+      </c>
+      <c r="Q37" s="3">
         <v>360</v>
       </c>
-      <c r="P37" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="3">
+        <v>349</v>
+      </c>
+      <c r="S37" s="4">
+        <v>351</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2539,38 +2974,50 @@
       <c r="G38" s="4">
         <v>349</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="12">
+        <f t="shared" si="0"/>
+        <v>349.4</v>
+      </c>
+      <c r="I38" s="5">
         <v>354</v>
       </c>
-      <c r="I38" s="5">
-        <v>350</v>
-      </c>
       <c r="J38" s="5">
+        <v>350</v>
+      </c>
+      <c r="K38" s="5">
         <v>360</v>
       </c>
-      <c r="K38" s="5">
-        <v>350</v>
-      </c>
       <c r="L38" s="5">
+        <v>350</v>
+      </c>
+      <c r="M38" s="5">
         <v>359</v>
       </c>
-      <c r="M38" s="2">
-        <v>352</v>
-      </c>
-      <c r="N38" s="3">
-        <v>351</v>
-      </c>
-      <c r="O38" s="3">
+      <c r="N38" s="12">
+        <f t="shared" si="1"/>
+        <v>354.6</v>
+      </c>
+      <c r="O38" s="2">
+        <v>352</v>
+      </c>
+      <c r="P38" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q38" s="3">
         <v>354</v>
       </c>
-      <c r="P38" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="3">
+        <v>349</v>
+      </c>
+      <c r="S38" s="4">
+        <v>350</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="2"/>
+        <v>351.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -2592,38 +3039,50 @@
       <c r="G39" s="4">
         <v>349</v>
       </c>
-      <c r="H39" s="5">
-        <v>346</v>
+      <c r="H39" s="12">
+        <f t="shared" si="0"/>
+        <v>345.6</v>
       </c>
       <c r="I39" s="5">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J39" s="5">
         <v>344</v>
       </c>
       <c r="K39" s="5">
+        <v>344</v>
+      </c>
+      <c r="L39" s="5">
         <v>342</v>
       </c>
-      <c r="L39" s="5">
+      <c r="M39" s="5">
         <v>345</v>
       </c>
-      <c r="M39" s="2">
-        <v>347</v>
-      </c>
-      <c r="N39" s="3">
+      <c r="N39" s="12">
+        <f t="shared" si="1"/>
+        <v>344.2</v>
+      </c>
+      <c r="O39" s="2">
+        <v>347</v>
+      </c>
+      <c r="P39" s="3">
         <v>343</v>
       </c>
-      <c r="O39" s="3">
-        <v>353</v>
-      </c>
-      <c r="P39" s="3">
+      <c r="Q39" s="3">
+        <v>353</v>
+      </c>
+      <c r="R39" s="3">
         <v>344</v>
       </c>
-      <c r="Q39" s="4">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S39" s="4">
+        <v>353</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -2645,38 +3104,50 @@
       <c r="G40" s="4">
         <v>359</v>
       </c>
-      <c r="H40" s="5">
-        <v>350</v>
+      <c r="H40" s="12">
+        <f t="shared" si="0"/>
+        <v>355</v>
       </c>
       <c r="I40" s="5">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J40" s="5">
         <v>351</v>
       </c>
       <c r="K40" s="5">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L40" s="5">
+        <v>352</v>
+      </c>
+      <c r="M40" s="5">
         <v>354</v>
       </c>
-      <c r="M40" s="2">
+      <c r="N40" s="12">
+        <f t="shared" si="1"/>
+        <v>351.6</v>
+      </c>
+      <c r="O40" s="2">
         <v>354</v>
       </c>
-      <c r="N40" s="3">
+      <c r="P40" s="3">
         <v>354</v>
       </c>
-      <c r="O40" s="3">
+      <c r="Q40" s="3">
         <v>362</v>
       </c>
-      <c r="P40" s="3">
+      <c r="R40" s="3">
         <v>355</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="S40" s="4">
         <v>364</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T40">
+        <f t="shared" si="2"/>
+        <v>357.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -2698,38 +3169,50 @@
       <c r="G41" s="4">
         <v>354</v>
       </c>
-      <c r="H41" s="5">
-        <v>342</v>
+      <c r="H41" s="12">
+        <f t="shared" si="0"/>
+        <v>352.2</v>
       </c>
       <c r="I41" s="5">
         <v>342</v>
       </c>
       <c r="J41" s="5">
+        <v>342</v>
+      </c>
+      <c r="K41" s="5">
         <v>343</v>
       </c>
-      <c r="K41" s="5">
+      <c r="L41" s="5">
         <v>340</v>
       </c>
-      <c r="L41" s="5">
+      <c r="M41" s="5">
         <v>344</v>
       </c>
-      <c r="M41" s="2">
-        <v>352</v>
-      </c>
-      <c r="N41" s="3">
-        <v>350</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="N41" s="12">
+        <f t="shared" si="1"/>
+        <v>342.2</v>
+      </c>
+      <c r="O41" s="2">
+        <v>352</v>
+      </c>
+      <c r="P41" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q41" s="3">
         <v>360</v>
       </c>
-      <c r="P41" s="3">
-        <v>350</v>
-      </c>
-      <c r="Q41" s="4">
+      <c r="R41" s="3">
+        <v>350</v>
+      </c>
+      <c r="S41" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T41">
+        <f t="shared" si="2"/>
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2751,8 +3234,9 @@
       <c r="G42" s="4">
         <v>354</v>
       </c>
-      <c r="H42" s="5">
-        <v>349</v>
+      <c r="H42" s="12">
+        <f t="shared" si="0"/>
+        <v>352.6</v>
       </c>
       <c r="I42" s="5">
         <v>349</v>
@@ -2761,28 +3245,39 @@
         <v>349</v>
       </c>
       <c r="K42" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L42" s="5">
-        <v>351</v>
-      </c>
-      <c r="M42" s="2">
-        <v>350</v>
-      </c>
-      <c r="N42" s="3">
-        <v>350</v>
-      </c>
-      <c r="O42" s="3">
-        <v>352</v>
+        <v>347</v>
+      </c>
+      <c r="M42" s="5">
+        <v>351</v>
+      </c>
+      <c r="N42" s="12">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="O42" s="2">
+        <v>350</v>
       </c>
       <c r="P42" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>352</v>
+      </c>
+      <c r="R42" s="3">
         <v>358</v>
       </c>
-      <c r="Q42" s="4">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S42" s="4">
+        <v>352</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="2"/>
+        <v>352.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -2804,38 +3299,50 @@
       <c r="G43" s="4">
         <v>354</v>
       </c>
-      <c r="H43" s="5">
-        <v>349</v>
+      <c r="H43" s="12">
+        <f t="shared" si="0"/>
+        <v>351</v>
       </c>
       <c r="I43" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J43" s="5">
         <v>348</v>
       </c>
       <c r="K43" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L43" s="5">
-        <v>350</v>
-      </c>
-      <c r="M43" s="2">
-        <v>351</v>
-      </c>
-      <c r="N43" s="3">
-        <v>350</v>
-      </c>
-      <c r="O43" s="3">
+        <v>347</v>
+      </c>
+      <c r="M43" s="5">
+        <v>350</v>
+      </c>
+      <c r="N43" s="12">
+        <f t="shared" si="1"/>
+        <v>348.4</v>
+      </c>
+      <c r="O43" s="2">
+        <v>351</v>
+      </c>
+      <c r="P43" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q43" s="3">
         <v>360</v>
       </c>
-      <c r="P43" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q43" s="4">
+      <c r="R43" s="3">
+        <v>352</v>
+      </c>
+      <c r="S43" s="4">
         <v>360</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T43">
+        <f t="shared" si="2"/>
+        <v>354.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -2857,38 +3364,50 @@
       <c r="G44" s="4">
         <v>355</v>
       </c>
-      <c r="H44" s="5">
-        <v>349</v>
+      <c r="H44" s="12">
+        <f t="shared" si="0"/>
+        <v>353</v>
       </c>
       <c r="I44" s="5">
         <v>349</v>
       </c>
       <c r="J44" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K44" s="5">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L44" s="5">
-        <v>349</v>
-      </c>
-      <c r="M44" s="2">
+        <v>350</v>
+      </c>
+      <c r="M44" s="5">
+        <v>349</v>
+      </c>
+      <c r="N44" s="12">
+        <f t="shared" si="1"/>
+        <v>348.8</v>
+      </c>
+      <c r="O44" s="2">
         <v>331</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>344</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>336</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>334</v>
       </c>
-      <c r="Q44" s="4">
+      <c r="S44" s="4">
         <v>336</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T44">
+        <f t="shared" si="2"/>
+        <v>336.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -2910,38 +3429,50 @@
       <c r="G45" s="4">
         <v>355</v>
       </c>
-      <c r="H45" s="5">
-        <v>348</v>
+      <c r="H45" s="12">
+        <f t="shared" si="0"/>
+        <v>351.8</v>
       </c>
       <c r="I45" s="5">
         <v>348</v>
       </c>
       <c r="J45" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K45" s="5">
         <v>347</v>
       </c>
       <c r="L45" s="5">
-        <v>349</v>
-      </c>
-      <c r="M45" s="2">
-        <v>348</v>
-      </c>
-      <c r="N45" s="3">
-        <v>349</v>
-      </c>
-      <c r="O45" s="3">
+        <v>347</v>
+      </c>
+      <c r="M45" s="5">
+        <v>349</v>
+      </c>
+      <c r="N45" s="12">
+        <f t="shared" si="1"/>
+        <v>347.8</v>
+      </c>
+      <c r="O45" s="2">
+        <v>348</v>
+      </c>
+      <c r="P45" s="3">
+        <v>349</v>
+      </c>
+      <c r="Q45" s="3">
         <v>359</v>
       </c>
-      <c r="P45" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q45" s="4">
+      <c r="R45" s="3">
+        <v>349</v>
+      </c>
+      <c r="S45" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T45">
+        <f t="shared" si="2"/>
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -2963,8 +3494,9 @@
       <c r="G46" s="4">
         <v>355</v>
       </c>
-      <c r="H46" s="5">
-        <v>349</v>
+      <c r="H46" s="12">
+        <f t="shared" si="0"/>
+        <v>351.6</v>
       </c>
       <c r="I46" s="5">
         <v>349</v>
@@ -2973,28 +3505,39 @@
         <v>349</v>
       </c>
       <c r="K46" s="5">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L46" s="5">
-        <v>350</v>
-      </c>
-      <c r="M46" s="2">
-        <v>353</v>
-      </c>
-      <c r="N46" s="3">
-        <v>351</v>
-      </c>
-      <c r="O46" s="3">
+        <v>346</v>
+      </c>
+      <c r="M46" s="5">
+        <v>350</v>
+      </c>
+      <c r="N46" s="12">
+        <f t="shared" si="1"/>
+        <v>348.6</v>
+      </c>
+      <c r="O46" s="2">
+        <v>353</v>
+      </c>
+      <c r="P46" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q46" s="3">
         <v>362</v>
       </c>
-      <c r="P46" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q46" s="4">
+      <c r="R46" s="3">
+        <v>352</v>
+      </c>
+      <c r="S46" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T46">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -3016,38 +3559,50 @@
       <c r="G47" s="4">
         <v>351</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="12">
+        <f t="shared" si="0"/>
+        <v>349.2</v>
+      </c>
+      <c r="I47" s="5">
         <v>339</v>
       </c>
-      <c r="I47" s="5">
+      <c r="J47" s="5">
         <v>340</v>
       </c>
-      <c r="J47" s="5">
+      <c r="K47" s="5">
         <v>341</v>
       </c>
-      <c r="K47" s="5">
+      <c r="L47" s="5">
         <v>338</v>
       </c>
-      <c r="L47" s="5">
+      <c r="M47" s="5">
         <v>342</v>
       </c>
-      <c r="M47" s="2">
-        <v>351</v>
-      </c>
-      <c r="N47" s="3">
-        <v>349</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="N47" s="12">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="O47" s="2">
+        <v>351</v>
+      </c>
+      <c r="P47" s="3">
+        <v>349</v>
+      </c>
+      <c r="Q47" s="3">
         <v>358</v>
       </c>
-      <c r="P47" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q47" s="4">
+      <c r="R47" s="3">
+        <v>351</v>
+      </c>
+      <c r="S47" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T47">
+        <f t="shared" si="2"/>
+        <v>353.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -3069,38 +3624,50 @@
       <c r="G48" s="4">
         <v>355</v>
       </c>
-      <c r="H48" s="5">
-        <v>350</v>
+      <c r="H48" s="12">
+        <f t="shared" si="0"/>
+        <v>351.6</v>
       </c>
       <c r="I48" s="5">
         <v>350</v>
       </c>
       <c r="J48" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K48" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L48" s="5">
-        <v>351</v>
-      </c>
-      <c r="M48" s="2">
-        <v>351</v>
-      </c>
-      <c r="N48" s="3">
-        <v>352</v>
-      </c>
-      <c r="O48" s="3">
+        <v>347</v>
+      </c>
+      <c r="M48" s="5">
+        <v>351</v>
+      </c>
+      <c r="N48" s="12">
+        <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="O48" s="2">
+        <v>351</v>
+      </c>
+      <c r="P48" s="3">
+        <v>352</v>
+      </c>
+      <c r="Q48" s="3">
         <v>361</v>
       </c>
-      <c r="P48" s="3">
-        <v>352</v>
-      </c>
-      <c r="Q48" s="4">
+      <c r="R48" s="3">
+        <v>352</v>
+      </c>
+      <c r="S48" s="4">
         <v>360</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T48">
+        <f t="shared" si="2"/>
+        <v>355.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -3122,38 +3689,50 @@
       <c r="G49" s="4">
         <v>354</v>
       </c>
-      <c r="H49" s="5">
-        <v>349</v>
+      <c r="H49" s="12">
+        <f t="shared" si="0"/>
+        <v>350.4</v>
       </c>
       <c r="I49" s="5">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J49" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K49" s="5">
         <v>349</v>
       </c>
       <c r="L49" s="5">
-        <v>351</v>
-      </c>
-      <c r="M49" s="2">
-        <v>351</v>
-      </c>
-      <c r="N49" s="3">
-        <v>353</v>
-      </c>
-      <c r="O49" s="3">
+        <v>349</v>
+      </c>
+      <c r="M49" s="5">
+        <v>351</v>
+      </c>
+      <c r="N49" s="12">
+        <f t="shared" si="1"/>
+        <v>349.6</v>
+      </c>
+      <c r="O49" s="2">
+        <v>351</v>
+      </c>
+      <c r="P49" s="3">
+        <v>353</v>
+      </c>
+      <c r="Q49" s="3">
         <v>360</v>
       </c>
-      <c r="P49" s="3">
-        <v>353</v>
-      </c>
-      <c r="Q49" s="4">
+      <c r="R49" s="3">
+        <v>353</v>
+      </c>
+      <c r="S49" s="4">
         <v>361</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T49">
+        <f t="shared" si="2"/>
+        <v>355.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -3175,8 +3754,9 @@
       <c r="G50" s="4">
         <v>354</v>
       </c>
-      <c r="H50" s="5">
-        <v>343</v>
+      <c r="H50" s="12">
+        <f t="shared" si="0"/>
+        <v>352</v>
       </c>
       <c r="I50" s="5">
         <v>343</v>
@@ -3185,28 +3765,39 @@
         <v>343</v>
       </c>
       <c r="K50" s="5">
+        <v>343</v>
+      </c>
+      <c r="L50" s="5">
         <v>342</v>
       </c>
-      <c r="L50" s="5">
+      <c r="M50" s="5">
         <v>345</v>
       </c>
-      <c r="M50" s="2">
+      <c r="N50" s="12">
+        <f t="shared" si="1"/>
+        <v>343.2</v>
+      </c>
+      <c r="O50" s="2">
         <v>355</v>
       </c>
-      <c r="N50" s="3">
+      <c r="P50" s="3">
         <v>355</v>
       </c>
-      <c r="O50" s="3">
+      <c r="Q50" s="3">
         <v>262</v>
       </c>
-      <c r="P50" s="3">
+      <c r="R50" s="3">
         <v>252</v>
       </c>
-      <c r="Q50" s="4">
+      <c r="S50" s="4">
         <v>364</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T50">
+        <f t="shared" si="2"/>
+        <v>317.60000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,38 +3819,50 @@
       <c r="G51" s="4">
         <v>355</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="12">
+        <f t="shared" si="0"/>
+        <v>353.4</v>
+      </c>
+      <c r="I51" s="5">
         <v>342</v>
       </c>
-      <c r="I51" s="5">
+      <c r="J51" s="5">
         <v>344</v>
       </c>
-      <c r="J51" s="5">
+      <c r="K51" s="5">
         <v>345</v>
       </c>
-      <c r="K51" s="5">
+      <c r="L51" s="5">
         <v>342</v>
       </c>
-      <c r="L51" s="5">
+      <c r="M51" s="5">
         <v>345</v>
       </c>
-      <c r="M51" s="2">
+      <c r="N51" s="12">
+        <f t="shared" si="1"/>
+        <v>343.6</v>
+      </c>
+      <c r="O51" s="2">
         <v>356</v>
       </c>
-      <c r="N51" s="3">
+      <c r="P51" s="3">
         <v>355</v>
       </c>
-      <c r="O51" s="3">
+      <c r="Q51" s="3">
         <v>364</v>
       </c>
-      <c r="P51" s="3">
+      <c r="R51" s="3">
         <v>356</v>
       </c>
-      <c r="Q51" s="4">
+      <c r="S51" s="4">
         <v>364</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T51">
+        <f t="shared" si="2"/>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -3281,38 +3884,50 @@
       <c r="G52" s="4">
         <v>357</v>
       </c>
-      <c r="H52" s="5">
-        <v>350</v>
+      <c r="H52" s="12">
+        <f t="shared" si="0"/>
+        <v>353</v>
       </c>
       <c r="I52" s="5">
         <v>350</v>
       </c>
       <c r="J52" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K52" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L52" s="5">
-        <v>350</v>
-      </c>
-      <c r="M52" s="2">
-        <v>351</v>
-      </c>
-      <c r="N52" s="3">
-        <v>350</v>
-      </c>
-      <c r="O52" s="3">
+        <v>347</v>
+      </c>
+      <c r="M52" s="5">
+        <v>350</v>
+      </c>
+      <c r="N52" s="12">
+        <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="O52" s="2">
+        <v>351</v>
+      </c>
+      <c r="P52" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q52" s="3">
         <v>359</v>
       </c>
-      <c r="P52" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q52" s="4">
+      <c r="R52" s="3">
+        <v>351</v>
+      </c>
+      <c r="S52" s="4">
         <v>359</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T52">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -3334,38 +3949,50 @@
       <c r="G53" s="4">
         <v>357</v>
       </c>
-      <c r="H53" s="5">
-        <v>350</v>
+      <c r="H53" s="12">
+        <f t="shared" si="0"/>
+        <v>352</v>
       </c>
       <c r="I53" s="5">
         <v>350</v>
       </c>
       <c r="J53" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K53" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L53" s="5">
-        <v>350</v>
-      </c>
-      <c r="M53" s="2">
-        <v>352</v>
-      </c>
-      <c r="N53" s="3">
-        <v>351</v>
-      </c>
-      <c r="O53" s="3">
+        <v>348</v>
+      </c>
+      <c r="M53" s="5">
+        <v>350</v>
+      </c>
+      <c r="N53" s="12">
+        <f t="shared" si="1"/>
+        <v>349.4</v>
+      </c>
+      <c r="O53" s="2">
+        <v>352</v>
+      </c>
+      <c r="P53" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q53" s="3">
         <v>360</v>
       </c>
-      <c r="P53" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q53" s="4">
+      <c r="R53" s="3">
+        <v>351</v>
+      </c>
+      <c r="S53" s="4">
         <v>360</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T53">
+        <f t="shared" si="2"/>
+        <v>354.8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -3387,38 +4014,50 @@
       <c r="G54" s="4">
         <v>358</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="12">
+        <f t="shared" si="0"/>
+        <v>354.4</v>
+      </c>
+      <c r="I54" s="5">
         <v>355</v>
       </c>
-      <c r="I54" s="5">
+      <c r="J54" s="5">
         <v>354</v>
       </c>
-      <c r="J54" s="5">
+      <c r="K54" s="5">
         <v>355</v>
       </c>
-      <c r="K54" s="5">
-        <v>353</v>
-      </c>
       <c r="L54" s="5">
+        <v>353</v>
+      </c>
+      <c r="M54" s="5">
         <v>356</v>
       </c>
-      <c r="M54" s="2">
+      <c r="N54" s="12">
+        <f t="shared" si="1"/>
+        <v>354.6</v>
+      </c>
+      <c r="O54" s="2">
         <v>355</v>
       </c>
-      <c r="N54" s="3">
-        <v>352</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>352</v>
+      </c>
+      <c r="Q54" s="3">
         <v>362</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>354</v>
       </c>
-      <c r="Q54" s="4">
+      <c r="S54" s="4">
         <v>362</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T54">
+        <f t="shared" si="2"/>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -3440,38 +4079,50 @@
       <c r="G55" s="4">
         <v>353</v>
       </c>
-      <c r="H55" s="5">
-        <v>349</v>
+      <c r="H55" s="12">
+        <f t="shared" si="0"/>
+        <v>351.2</v>
       </c>
       <c r="I55" s="5">
         <v>349</v>
       </c>
       <c r="J55" s="5">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K55" s="5">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L55" s="5">
-        <v>350</v>
-      </c>
-      <c r="M55" s="2">
-        <v>349</v>
-      </c>
-      <c r="N55" s="3">
-        <v>347</v>
-      </c>
-      <c r="O55" s="3">
+        <v>347</v>
+      </c>
+      <c r="M55" s="5">
+        <v>350</v>
+      </c>
+      <c r="N55" s="12">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="O55" s="2">
+        <v>349</v>
+      </c>
+      <c r="P55" s="3">
+        <v>347</v>
+      </c>
+      <c r="Q55" s="3">
         <v>357</v>
       </c>
-      <c r="P55" s="3">
-        <v>348</v>
-      </c>
-      <c r="Q55" s="4">
+      <c r="R55" s="3">
+        <v>348</v>
+      </c>
+      <c r="S55" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T55">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -3493,38 +4144,50 @@
       <c r="G56" s="4">
         <v>355</v>
       </c>
-      <c r="H56" s="5">
-        <v>351</v>
+      <c r="H56" s="12">
+        <f t="shared" si="0"/>
+        <v>351.8</v>
       </c>
       <c r="I56" s="5">
         <v>351</v>
       </c>
       <c r="J56" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K56" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L56" s="5">
-        <v>352</v>
-      </c>
-      <c r="M56" s="2">
-        <v>350</v>
-      </c>
-      <c r="N56" s="3">
-        <v>349</v>
-      </c>
-      <c r="O56" s="3">
+        <v>348</v>
+      </c>
+      <c r="M56" s="5">
+        <v>352</v>
+      </c>
+      <c r="N56" s="12">
+        <f t="shared" si="1"/>
+        <v>350.4</v>
+      </c>
+      <c r="O56" s="2">
+        <v>350</v>
+      </c>
+      <c r="P56" s="3">
+        <v>349</v>
+      </c>
+      <c r="Q56" s="3">
         <v>359</v>
       </c>
-      <c r="P56" s="3">
-        <v>350</v>
-      </c>
-      <c r="Q56" s="4">
+      <c r="R56" s="3">
+        <v>350</v>
+      </c>
+      <c r="S56" s="4">
         <v>359</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T56">
+        <f t="shared" si="2"/>
+        <v>353.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -3546,8 +4209,9 @@
       <c r="G57" s="4">
         <v>353</v>
       </c>
-      <c r="H57" s="5">
-        <v>350</v>
+      <c r="H57" s="12">
+        <f t="shared" si="0"/>
+        <v>350.4</v>
       </c>
       <c r="I57" s="5">
         <v>350</v>
@@ -3556,28 +4220,39 @@
         <v>350</v>
       </c>
       <c r="K57" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L57" s="5">
-        <v>351</v>
-      </c>
-      <c r="M57" s="2">
-        <v>349</v>
-      </c>
-      <c r="N57" s="3">
-        <v>348</v>
-      </c>
-      <c r="O57" s="3">
+        <v>348</v>
+      </c>
+      <c r="M57" s="5">
+        <v>351</v>
+      </c>
+      <c r="N57" s="12">
+        <f t="shared" si="1"/>
+        <v>349.8</v>
+      </c>
+      <c r="O57" s="2">
+        <v>349</v>
+      </c>
+      <c r="P57" s="3">
+        <v>348</v>
+      </c>
+      <c r="Q57" s="3">
         <v>357</v>
       </c>
-      <c r="P57" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q57" s="4">
+      <c r="R57" s="3">
+        <v>349</v>
+      </c>
+      <c r="S57" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T57">
+        <f t="shared" si="2"/>
+        <v>352.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -3599,38 +4274,50 @@
       <c r="G58" s="4">
         <v>349</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="12">
+        <f t="shared" si="0"/>
+        <v>347.6</v>
+      </c>
+      <c r="I58" s="5">
         <v>345</v>
       </c>
-      <c r="I58" s="5">
-        <v>346</v>
-      </c>
       <c r="J58" s="5">
+        <v>346</v>
+      </c>
+      <c r="K58" s="5">
         <v>355</v>
       </c>
-      <c r="K58" s="5">
+      <c r="L58" s="5">
         <v>345</v>
       </c>
-      <c r="L58" s="5">
+      <c r="M58" s="5">
         <v>356</v>
       </c>
-      <c r="M58" s="2">
-        <v>348</v>
-      </c>
-      <c r="N58" s="3">
-        <v>347</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="12">
+        <f t="shared" si="1"/>
+        <v>349.4</v>
+      </c>
+      <c r="O58" s="2">
         <v>348</v>
       </c>
       <c r="P58" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q58" s="4">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>348</v>
+      </c>
+      <c r="R58" s="3">
+        <v>349</v>
+      </c>
+      <c r="S58" s="4">
+        <v>351</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="2"/>
+        <v>348.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -3652,38 +4339,50 @@
       <c r="G59" s="4">
         <v>349</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="12">
+        <f t="shared" si="0"/>
+        <v>347.6</v>
+      </c>
+      <c r="I59" s="5">
         <v>345</v>
       </c>
-      <c r="I59" s="5">
-        <v>346</v>
-      </c>
       <c r="J59" s="5">
+        <v>346</v>
+      </c>
+      <c r="K59" s="5">
         <v>354</v>
       </c>
-      <c r="K59" s="5">
-        <v>346</v>
-      </c>
       <c r="L59" s="5">
+        <v>346</v>
+      </c>
+      <c r="M59" s="5">
         <v>355</v>
       </c>
-      <c r="M59" s="2">
-        <v>348</v>
-      </c>
-      <c r="N59" s="3">
-        <v>347</v>
-      </c>
-      <c r="O59" s="3">
-        <v>349</v>
+      <c r="N59" s="12">
+        <f t="shared" si="1"/>
+        <v>349.2</v>
+      </c>
+      <c r="O59" s="2">
+        <v>348</v>
       </c>
       <c r="P59" s="3">
-        <v>350</v>
-      </c>
-      <c r="Q59" s="4">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>349</v>
+      </c>
+      <c r="R59" s="3">
+        <v>350</v>
+      </c>
+      <c r="S59" s="4">
+        <v>351</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -3705,38 +4404,50 @@
       <c r="G60" s="4">
         <v>351</v>
       </c>
-      <c r="H60" s="5">
-        <v>348</v>
+      <c r="H60" s="12">
+        <f t="shared" si="0"/>
+        <v>347.2</v>
       </c>
       <c r="I60" s="5">
+        <v>348</v>
+      </c>
+      <c r="J60" s="5">
         <v>345</v>
       </c>
-      <c r="J60" s="5">
-        <v>348</v>
-      </c>
       <c r="K60" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L60" s="5">
-        <v>348</v>
-      </c>
-      <c r="M60" s="2">
+        <v>346</v>
+      </c>
+      <c r="M60" s="5">
+        <v>348</v>
+      </c>
+      <c r="N60" s="12">
+        <f t="shared" si="1"/>
+        <v>347</v>
+      </c>
+      <c r="O60" s="2">
         <v>345</v>
       </c>
-      <c r="N60" s="3">
-        <v>346</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q60" s="3">
         <v>355</v>
       </c>
-      <c r="P60" s="3">
-        <v>346</v>
-      </c>
-      <c r="Q60" s="4">
+      <c r="R60" s="3">
+        <v>346</v>
+      </c>
+      <c r="S60" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T60">
+        <f t="shared" si="2"/>
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -3758,8 +4469,9 @@
       <c r="G61" s="4">
         <v>351</v>
       </c>
-      <c r="H61" s="5">
-        <v>348</v>
+      <c r="H61" s="12">
+        <f t="shared" si="0"/>
+        <v>347.4</v>
       </c>
       <c r="I61" s="5">
         <v>348</v>
@@ -3768,28 +4480,39 @@
         <v>348</v>
       </c>
       <c r="K61" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L61" s="5">
-        <v>349</v>
-      </c>
-      <c r="M61" s="2">
+        <v>346</v>
+      </c>
+      <c r="M61" s="5">
+        <v>349</v>
+      </c>
+      <c r="N61" s="12">
+        <f t="shared" si="1"/>
+        <v>347.8</v>
+      </c>
+      <c r="O61" s="2">
         <v>343</v>
       </c>
-      <c r="N61" s="3">
-        <v>346</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q61" s="3">
         <v>356</v>
       </c>
-      <c r="P61" s="3">
-        <v>346</v>
-      </c>
-      <c r="Q61" s="4">
+      <c r="R61" s="3">
+        <v>346</v>
+      </c>
+      <c r="S61" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T61">
+        <f t="shared" si="2"/>
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -3811,38 +4534,50 @@
       <c r="G62" s="4">
         <v>350</v>
       </c>
-      <c r="H62" s="5">
-        <v>352</v>
+      <c r="H62" s="12">
+        <f t="shared" si="0"/>
+        <v>349.6</v>
       </c>
       <c r="I62" s="5">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="J62" s="5">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K62" s="5">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L62" s="5">
-        <v>353</v>
-      </c>
-      <c r="M62" s="2">
-        <v>348</v>
-      </c>
-      <c r="N62" s="3">
-        <v>350</v>
-      </c>
-      <c r="O62" s="3">
+        <v>350</v>
+      </c>
+      <c r="M62" s="5">
+        <v>353</v>
+      </c>
+      <c r="N62" s="12">
+        <f t="shared" si="1"/>
+        <v>350.4</v>
+      </c>
+      <c r="O62" s="2">
+        <v>348</v>
+      </c>
+      <c r="P62" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q62" s="3">
         <v>359</v>
       </c>
-      <c r="P62" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q62" s="4">
+      <c r="R62" s="3">
+        <v>349</v>
+      </c>
+      <c r="S62" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T62">
+        <f t="shared" si="2"/>
+        <v>352.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -3864,38 +4599,50 @@
       <c r="G63" s="4">
         <v>352</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="12">
+        <f t="shared" si="0"/>
         <v>350</v>
       </c>
       <c r="I63" s="5">
         <v>350</v>
       </c>
       <c r="J63" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K63" s="5">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L63" s="5">
-        <v>351</v>
-      </c>
-      <c r="M63" s="2">
-        <v>350</v>
-      </c>
-      <c r="N63" s="3">
-        <v>351</v>
-      </c>
-      <c r="O63" s="3">
+        <v>350</v>
+      </c>
+      <c r="M63" s="5">
+        <v>351</v>
+      </c>
+      <c r="N63" s="12">
+        <f t="shared" si="1"/>
+        <v>349.8</v>
+      </c>
+      <c r="O63" s="2">
+        <v>350</v>
+      </c>
+      <c r="P63" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q63" s="3">
         <v>360</v>
       </c>
-      <c r="P63" s="3">
-        <v>350</v>
-      </c>
-      <c r="Q63" s="4">
+      <c r="R63" s="3">
+        <v>350</v>
+      </c>
+      <c r="S63" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T63">
+        <f t="shared" si="2"/>
+        <v>353.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -3917,38 +4664,50 @@
       <c r="G64" s="4">
         <v>351</v>
       </c>
-      <c r="H64" s="5">
-        <v>350</v>
+      <c r="H64" s="12">
+        <f t="shared" si="0"/>
+        <v>349.6</v>
       </c>
       <c r="I64" s="5">
         <v>350</v>
       </c>
       <c r="J64" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="K64" s="5">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L64" s="5">
-        <v>351</v>
-      </c>
-      <c r="M64" s="2">
-        <v>350</v>
-      </c>
-      <c r="N64" s="3">
-        <v>351</v>
-      </c>
-      <c r="O64" s="3">
+        <v>350</v>
+      </c>
+      <c r="M64" s="5">
+        <v>351</v>
+      </c>
+      <c r="N64" s="12">
+        <f t="shared" si="1"/>
+        <v>349.8</v>
+      </c>
+      <c r="O64" s="2">
+        <v>350</v>
+      </c>
+      <c r="P64" s="3">
+        <v>351</v>
+      </c>
+      <c r="Q64" s="3">
         <v>359</v>
       </c>
-      <c r="P64" s="3">
-        <v>351</v>
-      </c>
-      <c r="Q64" s="4">
+      <c r="R64" s="3">
+        <v>351</v>
+      </c>
+      <c r="S64" s="4">
         <v>354</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T64">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -3970,38 +4729,50 @@
       <c r="G65" s="4">
         <v>349</v>
       </c>
-      <c r="H65" s="5">
-        <v>348</v>
+      <c r="H65" s="12">
+        <f t="shared" si="0"/>
+        <v>346.8</v>
       </c>
       <c r="I65" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J65" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K65" s="5">
+        <v>346</v>
+      </c>
+      <c r="L65" s="5">
         <v>344</v>
       </c>
-      <c r="L65" s="5">
-        <v>348</v>
-      </c>
-      <c r="M65" s="2">
-        <v>348</v>
-      </c>
-      <c r="N65" s="3">
-        <v>347</v>
-      </c>
-      <c r="O65" s="3">
+      <c r="M65" s="5">
+        <v>348</v>
+      </c>
+      <c r="N65" s="12">
+        <f t="shared" si="1"/>
+        <v>346.6</v>
+      </c>
+      <c r="O65" s="2">
+        <v>348</v>
+      </c>
+      <c r="P65" s="3">
+        <v>347</v>
+      </c>
+      <c r="Q65" s="3">
         <v>356</v>
       </c>
-      <c r="P65" s="3">
+      <c r="R65" s="3">
         <v>344</v>
       </c>
-      <c r="Q65" s="4">
+      <c r="S65" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T65">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>1</v>
       </c>
@@ -4023,38 +4794,50 @@
       <c r="G66" s="4">
         <v>352</v>
       </c>
-      <c r="H66" s="5">
-        <v>348</v>
+      <c r="H66" s="12">
+        <f t="shared" si="0"/>
+        <v>349</v>
       </c>
       <c r="I66" s="5">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J66" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K66" s="5">
         <v>348</v>
       </c>
       <c r="L66" s="5">
-        <v>350</v>
-      </c>
-      <c r="M66" s="2">
-        <v>347</v>
-      </c>
-      <c r="N66" s="3">
-        <v>349</v>
-      </c>
-      <c r="O66" s="3">
+        <v>348</v>
+      </c>
+      <c r="M66" s="5">
+        <v>350</v>
+      </c>
+      <c r="N66" s="12">
+        <f t="shared" si="1"/>
+        <v>348.6</v>
+      </c>
+      <c r="O66" s="2">
+        <v>347</v>
+      </c>
+      <c r="P66" s="3">
+        <v>349</v>
+      </c>
+      <c r="Q66" s="3">
         <v>358</v>
       </c>
-      <c r="P66" s="3">
-        <v>348</v>
-      </c>
-      <c r="Q66" s="4">
+      <c r="R66" s="3">
+        <v>348</v>
+      </c>
+      <c r="S66" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T66">
+        <f t="shared" si="2"/>
+        <v>351.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>1</v>
       </c>
@@ -4076,38 +4859,50 @@
       <c r="G67" s="4">
         <v>353</v>
       </c>
-      <c r="H67" s="5">
-        <v>351</v>
+      <c r="H67" s="12">
+        <f t="shared" si="0"/>
+        <v>350.2</v>
       </c>
       <c r="I67" s="5">
         <v>351</v>
       </c>
       <c r="J67" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K67" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L67" s="5">
-        <v>352</v>
-      </c>
-      <c r="M67" s="2">
-        <v>349</v>
-      </c>
-      <c r="N67" s="3">
-        <v>348</v>
-      </c>
-      <c r="O67" s="3">
+        <v>349</v>
+      </c>
+      <c r="M67" s="5">
+        <v>352</v>
+      </c>
+      <c r="N67" s="12">
+        <f t="shared" si="1"/>
+        <v>350.6</v>
+      </c>
+      <c r="O67" s="2">
+        <v>349</v>
+      </c>
+      <c r="P67" s="3">
+        <v>348</v>
+      </c>
+      <c r="Q67" s="3">
         <v>359</v>
       </c>
-      <c r="P67" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q67" s="4">
+      <c r="R67" s="3">
+        <v>349</v>
+      </c>
+      <c r="S67" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T67">
+        <f t="shared" si="2"/>
+        <v>352.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -4129,38 +4924,50 @@
       <c r="G68" s="4">
         <v>349</v>
       </c>
-      <c r="H68" s="5">
-        <v>347</v>
+      <c r="H68" s="12">
+        <f t="shared" ref="H68:H87" si="3">AVERAGE(C68:G68)</f>
+        <v>349.4</v>
       </c>
       <c r="I68" s="5">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J68" s="5">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K68" s="5">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L68" s="5">
-        <v>349</v>
-      </c>
-      <c r="M68" s="2">
-        <v>347</v>
-      </c>
-      <c r="N68" s="3">
-        <v>347</v>
-      </c>
-      <c r="O68" s="3">
+        <v>346</v>
+      </c>
+      <c r="M68" s="5">
+        <v>349</v>
+      </c>
+      <c r="N68" s="12">
+        <f t="shared" ref="N68:N87" si="4">AVERAGE(I68:M68)</f>
+        <v>347.8</v>
+      </c>
+      <c r="O68" s="2">
+        <v>347</v>
+      </c>
+      <c r="P68" s="3">
+        <v>347</v>
+      </c>
+      <c r="Q68" s="3">
         <v>343</v>
       </c>
-      <c r="P68" s="3">
+      <c r="R68" s="3">
         <v>341</v>
       </c>
-      <c r="Q68" s="4">
+      <c r="S68" s="4">
         <v>343</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T68">
+        <f t="shared" ref="T68:T87" si="5">AVERAGE(O68:S68)</f>
+        <v>344.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>1</v>
       </c>
@@ -4182,38 +4989,50 @@
       <c r="G69" s="4">
         <v>353</v>
       </c>
-      <c r="H69" s="5">
-        <v>349</v>
+      <c r="H69" s="12">
+        <f t="shared" si="3"/>
+        <v>349.8</v>
       </c>
       <c r="I69" s="5">
         <v>349</v>
       </c>
       <c r="J69" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K69" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L69" s="5">
-        <v>349</v>
-      </c>
-      <c r="M69" s="2">
-        <v>348</v>
-      </c>
-      <c r="N69" s="3">
-        <v>347</v>
-      </c>
-      <c r="O69" s="3">
+        <v>347</v>
+      </c>
+      <c r="M69" s="5">
+        <v>349</v>
+      </c>
+      <c r="N69" s="12">
+        <f t="shared" si="4"/>
+        <v>348.4</v>
+      </c>
+      <c r="O69" s="2">
+        <v>348</v>
+      </c>
+      <c r="P69" s="3">
+        <v>347</v>
+      </c>
+      <c r="Q69" s="3">
         <v>356</v>
       </c>
-      <c r="P69" s="3">
-        <v>346</v>
-      </c>
-      <c r="Q69" s="4">
+      <c r="R69" s="3">
+        <v>346</v>
+      </c>
+      <c r="S69" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T69">
+        <f t="shared" si="5"/>
+        <v>350.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>1</v>
       </c>
@@ -4235,38 +5054,50 @@
       <c r="G70" s="4">
         <v>351</v>
       </c>
-      <c r="H70" s="5">
-        <v>347</v>
+      <c r="H70" s="12">
+        <f t="shared" si="3"/>
+        <v>349</v>
       </c>
       <c r="I70" s="5">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J70" s="5">
         <v>348</v>
       </c>
       <c r="K70" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L70" s="5">
-        <v>348</v>
-      </c>
-      <c r="M70" s="2">
+        <v>346</v>
+      </c>
+      <c r="M70" s="5">
+        <v>348</v>
+      </c>
+      <c r="N70" s="12">
+        <f t="shared" si="4"/>
+        <v>347.4</v>
+      </c>
+      <c r="O70" s="2">
         <v>345</v>
       </c>
-      <c r="N70" s="3">
-        <v>346</v>
-      </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q70" s="3">
         <v>355</v>
       </c>
-      <c r="P70" s="3">
-        <v>347</v>
-      </c>
-      <c r="Q70" s="4">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" s="3">
+        <v>347</v>
+      </c>
+      <c r="S70" s="4">
+        <v>353</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="5"/>
+        <v>349.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>1</v>
       </c>
@@ -4288,8 +5119,9 @@
       <c r="G71" s="4">
         <v>349</v>
       </c>
-      <c r="H71" s="5">
-        <v>347</v>
+      <c r="H71" s="12">
+        <f t="shared" si="3"/>
+        <v>346.8</v>
       </c>
       <c r="I71" s="5">
         <v>347</v>
@@ -4298,28 +5130,39 @@
         <v>347</v>
       </c>
       <c r="K71" s="5">
+        <v>347</v>
+      </c>
+      <c r="L71" s="5">
         <v>345</v>
       </c>
-      <c r="L71" s="5">
-        <v>348</v>
-      </c>
-      <c r="M71" s="2">
+      <c r="M71" s="5">
+        <v>348</v>
+      </c>
+      <c r="N71" s="12">
+        <f t="shared" si="4"/>
+        <v>346.8</v>
+      </c>
+      <c r="O71" s="2">
         <v>345</v>
-      </c>
-      <c r="N71" s="3">
-        <v>345</v>
-      </c>
-      <c r="O71" s="3">
-        <v>353</v>
       </c>
       <c r="P71" s="3">
         <v>345</v>
       </c>
-      <c r="Q71" s="4">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q71" s="3">
+        <v>353</v>
+      </c>
+      <c r="R71" s="3">
+        <v>345</v>
+      </c>
+      <c r="S71" s="4">
+        <v>353</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="5"/>
+        <v>348.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>1</v>
       </c>
@@ -4341,38 +5184,50 @@
       <c r="G72" s="4">
         <v>350</v>
       </c>
-      <c r="H72" s="5">
-        <v>347</v>
+      <c r="H72" s="12">
+        <f t="shared" si="3"/>
+        <v>347.2</v>
       </c>
       <c r="I72" s="5">
         <v>347</v>
       </c>
       <c r="J72" s="5">
+        <v>347</v>
+      </c>
+      <c r="K72" s="5">
         <v>345</v>
       </c>
-      <c r="K72" s="5">
-        <v>349</v>
-      </c>
       <c r="L72" s="5">
-        <v>347</v>
-      </c>
-      <c r="M72" s="2">
-        <v>347</v>
-      </c>
-      <c r="N72" s="3">
-        <v>345</v>
-      </c>
-      <c r="O72" s="3">
-        <v>353</v>
+        <v>349</v>
+      </c>
+      <c r="M72" s="5">
+        <v>347</v>
+      </c>
+      <c r="N72" s="12">
+        <f t="shared" si="4"/>
+        <v>347</v>
+      </c>
+      <c r="O72" s="2">
+        <v>347</v>
       </c>
       <c r="P72" s="3">
         <v>345</v>
       </c>
-      <c r="Q72" s="4">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q72" s="3">
+        <v>353</v>
+      </c>
+      <c r="R72" s="3">
+        <v>345</v>
+      </c>
+      <c r="S72" s="4">
+        <v>353</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="5"/>
+        <v>348.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>1</v>
       </c>
@@ -4394,8 +5249,9 @@
       <c r="G73" s="4">
         <v>352</v>
       </c>
-      <c r="H73" s="5">
-        <v>349</v>
+      <c r="H73" s="12">
+        <f t="shared" si="3"/>
+        <v>348.4</v>
       </c>
       <c r="I73" s="5">
         <v>349</v>
@@ -4404,28 +5260,39 @@
         <v>349</v>
       </c>
       <c r="K73" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L73" s="5">
-        <v>350</v>
-      </c>
-      <c r="M73" s="2">
-        <v>349</v>
-      </c>
-      <c r="N73" s="3">
-        <v>346</v>
-      </c>
-      <c r="O73" s="3">
+        <v>347</v>
+      </c>
+      <c r="M73" s="5">
+        <v>350</v>
+      </c>
+      <c r="N73" s="12">
+        <f t="shared" si="4"/>
+        <v>348.8</v>
+      </c>
+      <c r="O73" s="2">
+        <v>349</v>
+      </c>
+      <c r="P73" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q73" s="3">
         <v>356</v>
       </c>
-      <c r="P73" s="3">
-        <v>347</v>
-      </c>
-      <c r="Q73" s="4">
+      <c r="R73" s="3">
+        <v>347</v>
+      </c>
+      <c r="S73" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T73">
+        <f t="shared" si="5"/>
+        <v>350.8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>1</v>
       </c>
@@ -4447,38 +5314,50 @@
       <c r="G74" s="4">
         <v>350</v>
       </c>
-      <c r="H74" s="5">
-        <v>338</v>
+      <c r="H74" s="12">
+        <f t="shared" si="3"/>
+        <v>347.6</v>
       </c>
       <c r="I74" s="5">
         <v>338</v>
       </c>
       <c r="J74" s="5">
+        <v>338</v>
+      </c>
+      <c r="K74" s="5">
         <v>340</v>
       </c>
-      <c r="K74" s="5">
+      <c r="L74" s="5">
         <v>336</v>
       </c>
-      <c r="L74" s="5">
+      <c r="M74" s="5">
         <v>340</v>
       </c>
-      <c r="M74" s="2">
+      <c r="N74" s="12">
+        <f t="shared" si="4"/>
+        <v>338.4</v>
+      </c>
+      <c r="O74" s="2">
         <v>342</v>
       </c>
-      <c r="N74" s="3">
+      <c r="P74" s="3">
         <v>342</v>
       </c>
-      <c r="O74" s="3">
-        <v>347</v>
-      </c>
-      <c r="P74" s="3">
+      <c r="Q74" s="3">
+        <v>347</v>
+      </c>
+      <c r="R74" s="3">
         <v>340</v>
       </c>
-      <c r="Q74" s="4">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S74" s="4">
+        <v>348</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="5"/>
+        <v>343.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
@@ -4500,8 +5379,9 @@
       <c r="G75" s="4">
         <v>352</v>
       </c>
-      <c r="H75" s="5">
-        <v>348</v>
+      <c r="H75" s="12">
+        <f t="shared" si="3"/>
+        <v>351</v>
       </c>
       <c r="I75" s="5">
         <v>348</v>
@@ -4510,28 +5390,39 @@
         <v>348</v>
       </c>
       <c r="K75" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L75" s="5">
-        <v>349</v>
-      </c>
-      <c r="M75" s="2">
-        <v>347</v>
-      </c>
-      <c r="N75" s="3">
-        <v>345</v>
-      </c>
-      <c r="O75" s="3">
-        <v>355</v>
+        <v>346</v>
+      </c>
+      <c r="M75" s="5">
+        <v>349</v>
+      </c>
+      <c r="N75" s="12">
+        <f t="shared" si="4"/>
+        <v>347.8</v>
+      </c>
+      <c r="O75" s="2">
+        <v>347</v>
       </c>
       <c r="P75" s="3">
         <v>345</v>
       </c>
-      <c r="Q75" s="4">
+      <c r="Q75" s="3">
         <v>355</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75" s="3">
+        <v>345</v>
+      </c>
+      <c r="S75" s="4">
+        <v>355</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="5"/>
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4553,8 +5444,9 @@
       <c r="G76" s="4">
         <v>350</v>
       </c>
-      <c r="H76" s="5">
-        <v>348</v>
+      <c r="H76" s="12">
+        <f t="shared" si="3"/>
+        <v>347.4</v>
       </c>
       <c r="I76" s="5">
         <v>348</v>
@@ -4563,28 +5455,39 @@
         <v>348</v>
       </c>
       <c r="K76" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L76" s="5">
-        <v>348</v>
-      </c>
-      <c r="M76" s="2">
-        <v>346</v>
-      </c>
-      <c r="N76" s="3">
-        <v>344</v>
-      </c>
-      <c r="O76" s="3">
-        <v>354</v>
+        <v>346</v>
+      </c>
+      <c r="M76" s="5">
+        <v>348</v>
+      </c>
+      <c r="N76" s="12">
+        <f t="shared" si="4"/>
+        <v>347.6</v>
+      </c>
+      <c r="O76" s="2">
+        <v>346</v>
       </c>
       <c r="P76" s="3">
         <v>344</v>
       </c>
-      <c r="Q76" s="4">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q76" s="3">
+        <v>354</v>
+      </c>
+      <c r="R76" s="3">
+        <v>344</v>
+      </c>
+      <c r="S76" s="4">
+        <v>353</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="5"/>
+        <v>348.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1</v>
       </c>
@@ -4606,38 +5509,50 @@
       <c r="G77" s="4">
         <v>349</v>
       </c>
-      <c r="H77" s="5">
-        <v>346</v>
+      <c r="H77" s="12">
+        <f t="shared" si="3"/>
+        <v>345.6</v>
       </c>
       <c r="I77" s="5">
         <v>346</v>
       </c>
       <c r="J77" s="5">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K77" s="5">
+        <v>347</v>
+      </c>
+      <c r="L77" s="5">
         <v>344</v>
       </c>
-      <c r="L77" s="5">
-        <v>347</v>
-      </c>
-      <c r="M77" s="2">
+      <c r="M77" s="5">
+        <v>347</v>
+      </c>
+      <c r="N77" s="12">
+        <f t="shared" si="4"/>
+        <v>346</v>
+      </c>
+      <c r="O77" s="2">
         <v>344</v>
       </c>
-      <c r="N77" s="3">
+      <c r="P77" s="3">
         <v>342</v>
       </c>
-      <c r="O77" s="3">
-        <v>353</v>
-      </c>
-      <c r="P77" s="3">
+      <c r="Q77" s="3">
+        <v>353</v>
+      </c>
+      <c r="R77" s="3">
         <v>343</v>
       </c>
-      <c r="Q77" s="4">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="S77" s="4">
+        <v>352</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="5"/>
+        <v>346.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>1</v>
       </c>
@@ -4659,38 +5574,50 @@
       <c r="G78" s="4">
         <v>353</v>
       </c>
-      <c r="H78" s="5">
-        <v>348</v>
+      <c r="H78" s="12">
+        <f t="shared" si="3"/>
+        <v>350.4</v>
       </c>
       <c r="I78" s="5">
         <v>348</v>
       </c>
       <c r="J78" s="5">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K78" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L78" s="5">
-        <v>349</v>
-      </c>
-      <c r="M78" s="2">
-        <v>347</v>
-      </c>
-      <c r="N78" s="3">
-        <v>347</v>
-      </c>
-      <c r="O78" s="3">
+        <v>346</v>
+      </c>
+      <c r="M78" s="5">
+        <v>349</v>
+      </c>
+      <c r="N78" s="12">
+        <f t="shared" si="4"/>
+        <v>347.6</v>
+      </c>
+      <c r="O78" s="2">
         <v>347</v>
       </c>
       <c r="P78" s="3">
+        <v>347</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>347</v>
+      </c>
+      <c r="R78" s="3">
         <v>357</v>
       </c>
-      <c r="Q78" s="4">
+      <c r="S78" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T78">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
@@ -4712,38 +5639,50 @@
       <c r="G79" s="4">
         <v>350</v>
       </c>
-      <c r="H79" s="5">
-        <v>346</v>
+      <c r="H79" s="12">
+        <f t="shared" si="3"/>
+        <v>345.8</v>
       </c>
       <c r="I79" s="5">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J79" s="5">
         <v>347</v>
       </c>
       <c r="K79" s="5">
+        <v>347</v>
+      </c>
+      <c r="L79" s="5">
         <v>345</v>
       </c>
-      <c r="L79" s="5">
-        <v>348</v>
-      </c>
-      <c r="M79" s="2">
+      <c r="M79" s="5">
+        <v>348</v>
+      </c>
+      <c r="N79" s="12">
+        <f t="shared" si="4"/>
+        <v>346.6</v>
+      </c>
+      <c r="O79" s="2">
         <v>345</v>
-      </c>
-      <c r="N79" s="3">
-        <v>343</v>
-      </c>
-      <c r="O79" s="3">
-        <v>352</v>
       </c>
       <c r="P79" s="3">
         <v>343</v>
       </c>
-      <c r="Q79" s="4">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q79" s="3">
+        <v>352</v>
+      </c>
+      <c r="R79" s="3">
+        <v>343</v>
+      </c>
+      <c r="S79" s="4">
+        <v>351</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="5"/>
+        <v>346.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>1</v>
       </c>
@@ -4765,38 +5704,50 @@
       <c r="G80" s="4">
         <v>350</v>
       </c>
-      <c r="H80" s="5">
-        <v>350</v>
+      <c r="H80" s="12">
+        <f t="shared" si="3"/>
+        <v>347.4</v>
       </c>
       <c r="I80" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J80" s="5">
         <v>349</v>
       </c>
       <c r="K80" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L80" s="5">
-        <v>350</v>
-      </c>
-      <c r="M80" s="2">
-        <v>347</v>
-      </c>
-      <c r="N80" s="3">
-        <v>345</v>
-      </c>
-      <c r="O80" s="3">
-        <v>356</v>
+        <v>347</v>
+      </c>
+      <c r="M80" s="5">
+        <v>350</v>
+      </c>
+      <c r="N80" s="12">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="O80" s="2">
+        <v>347</v>
       </c>
       <c r="P80" s="3">
         <v>345</v>
       </c>
-      <c r="Q80" s="4">
+      <c r="Q80" s="3">
+        <v>356</v>
+      </c>
+      <c r="R80" s="3">
+        <v>345</v>
+      </c>
+      <c r="S80" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T80">
+        <f t="shared" si="5"/>
+        <v>349.6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>1</v>
       </c>
@@ -4818,8 +5769,9 @@
       <c r="G81" s="4">
         <v>351</v>
       </c>
-      <c r="H81" s="5">
-        <v>350</v>
+      <c r="H81" s="12">
+        <f t="shared" si="3"/>
+        <v>348</v>
       </c>
       <c r="I81" s="5">
         <v>350</v>
@@ -4828,28 +5780,39 @@
         <v>350</v>
       </c>
       <c r="K81" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L81" s="5">
-        <v>351</v>
-      </c>
-      <c r="M81" s="2">
-        <v>347</v>
-      </c>
-      <c r="N81" s="3">
-        <v>346</v>
-      </c>
-      <c r="O81" s="3">
+        <v>348</v>
+      </c>
+      <c r="M81" s="5">
+        <v>351</v>
+      </c>
+      <c r="N81" s="12">
+        <f t="shared" si="4"/>
+        <v>349.8</v>
+      </c>
+      <c r="O81" s="2">
+        <v>347</v>
+      </c>
+      <c r="P81" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q81" s="3">
         <v>357</v>
       </c>
-      <c r="P81" s="3">
-        <v>347</v>
-      </c>
-      <c r="Q81" s="4">
+      <c r="R81" s="3">
+        <v>347</v>
+      </c>
+      <c r="S81" s="4">
         <v>356</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T81">
+        <f t="shared" si="5"/>
+        <v>350.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>1</v>
       </c>
@@ -4871,38 +5834,50 @@
       <c r="G82" s="4">
         <v>352</v>
       </c>
-      <c r="H82" s="5">
-        <v>350</v>
+      <c r="H82" s="12">
+        <f t="shared" si="3"/>
+        <v>348.2</v>
       </c>
       <c r="I82" s="5">
         <v>350</v>
       </c>
       <c r="J82" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K82" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L82" s="5">
-        <v>351</v>
-      </c>
-      <c r="M82" s="2">
-        <v>349</v>
-      </c>
-      <c r="N82" s="3">
-        <v>346</v>
-      </c>
-      <c r="O82" s="3">
+        <v>348</v>
+      </c>
+      <c r="M82" s="5">
+        <v>351</v>
+      </c>
+      <c r="N82" s="12">
+        <f t="shared" si="4"/>
+        <v>349.6</v>
+      </c>
+      <c r="O82" s="2">
+        <v>349</v>
+      </c>
+      <c r="P82" s="3">
+        <v>346</v>
+      </c>
+      <c r="Q82" s="3">
         <v>357</v>
       </c>
-      <c r="P82" s="3">
-        <v>346</v>
-      </c>
-      <c r="Q82" s="4">
+      <c r="R82" s="3">
+        <v>346</v>
+      </c>
+      <c r="S82" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T82">
+        <f t="shared" si="5"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>1</v>
       </c>
@@ -4924,8 +5899,9 @@
       <c r="G83" s="4">
         <v>349</v>
       </c>
-      <c r="H83" s="5">
-        <v>348</v>
+      <c r="H83" s="12">
+        <f t="shared" si="3"/>
+        <v>346.2</v>
       </c>
       <c r="I83" s="5">
         <v>348</v>
@@ -4934,28 +5910,39 @@
         <v>348</v>
       </c>
       <c r="K83" s="5">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L83" s="5">
-        <v>350</v>
-      </c>
-      <c r="M83" s="2">
+        <v>346</v>
+      </c>
+      <c r="M83" s="5">
+        <v>350</v>
+      </c>
+      <c r="N83" s="12">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="O83" s="2">
         <v>343</v>
       </c>
-      <c r="N83" s="3">
-        <v>347</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
+        <v>347</v>
+      </c>
+      <c r="Q83" s="3">
         <v>355</v>
       </c>
-      <c r="P83" s="3">
-        <v>347</v>
-      </c>
-      <c r="Q83" s="4">
+      <c r="R83" s="3">
+        <v>347</v>
+      </c>
+      <c r="S83" s="4">
         <v>355</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T83">
+        <f t="shared" si="5"/>
+        <v>349.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>1</v>
       </c>
@@ -4977,38 +5964,50 @@
       <c r="G84" s="4">
         <v>350</v>
       </c>
-      <c r="H84" s="5">
-        <v>350</v>
+      <c r="H84" s="12">
+        <f t="shared" si="3"/>
+        <v>347</v>
       </c>
       <c r="I84" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J84" s="5">
         <v>349</v>
       </c>
       <c r="K84" s="5">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L84" s="5">
-        <v>350</v>
-      </c>
-      <c r="M84" s="2">
-        <v>347</v>
-      </c>
-      <c r="N84" s="3">
-        <v>348</v>
-      </c>
-      <c r="O84" s="3">
+        <v>347</v>
+      </c>
+      <c r="M84" s="5">
+        <v>350</v>
+      </c>
+      <c r="N84" s="12">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="O84" s="2">
+        <v>347</v>
+      </c>
+      <c r="P84" s="3">
+        <v>348</v>
+      </c>
+      <c r="Q84" s="3">
         <v>358</v>
       </c>
-      <c r="P84" s="3">
-        <v>347</v>
-      </c>
-      <c r="Q84" s="4">
+      <c r="R84" s="3">
+        <v>347</v>
+      </c>
+      <c r="S84" s="4">
         <v>357</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T84">
+        <f t="shared" si="5"/>
+        <v>351.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>1</v>
       </c>
@@ -5030,38 +6029,50 @@
       <c r="G85" s="4">
         <v>352</v>
       </c>
-      <c r="H85" s="5">
+      <c r="H85" s="12">
+        <f t="shared" si="3"/>
+        <v>349.6</v>
+      </c>
+      <c r="I85" s="5">
         <v>345</v>
       </c>
-      <c r="I85" s="5">
-        <v>347</v>
-      </c>
       <c r="J85" s="5">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K85" s="5">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L85" s="5">
-        <v>347</v>
-      </c>
-      <c r="M85" s="2">
+        <v>348</v>
+      </c>
+      <c r="M85" s="5">
+        <v>347</v>
+      </c>
+      <c r="N85" s="12">
+        <f t="shared" si="4"/>
+        <v>346.6</v>
+      </c>
+      <c r="O85" s="2">
         <v>344</v>
-      </c>
-      <c r="N85" s="3">
-        <v>344</v>
-      </c>
-      <c r="O85" s="3">
-        <v>346</v>
       </c>
       <c r="P85" s="3">
         <v>344</v>
       </c>
-      <c r="Q85" s="4">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q85" s="3">
+        <v>346</v>
+      </c>
+      <c r="R85" s="3">
+        <v>344</v>
+      </c>
+      <c r="S85" s="4">
+        <v>348</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="5"/>
+        <v>345.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>1</v>
       </c>
@@ -5083,38 +6094,50 @@
       <c r="G86" s="4">
         <v>349</v>
       </c>
-      <c r="H86" s="5">
-        <v>351</v>
+      <c r="H86" s="12">
+        <f t="shared" si="3"/>
+        <v>346.4</v>
       </c>
       <c r="I86" s="5">
         <v>351</v>
       </c>
       <c r="J86" s="5">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K86" s="5">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L86" s="5">
-        <v>352</v>
-      </c>
-      <c r="M86" s="2">
-        <v>351</v>
-      </c>
-      <c r="N86" s="3">
-        <v>350</v>
-      </c>
-      <c r="O86" s="3">
+        <v>348</v>
+      </c>
+      <c r="M86" s="5">
+        <v>352</v>
+      </c>
+      <c r="N86" s="12">
+        <f t="shared" si="4"/>
+        <v>350.4</v>
+      </c>
+      <c r="O86" s="2">
+        <v>351</v>
+      </c>
+      <c r="P86" s="3">
+        <v>350</v>
+      </c>
+      <c r="Q86" s="3">
         <v>359</v>
       </c>
-      <c r="P86" s="3">
-        <v>349</v>
-      </c>
-      <c r="Q86" s="4">
+      <c r="R86" s="3">
+        <v>349</v>
+      </c>
+      <c r="S86" s="4">
         <v>358</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T86">
+        <f t="shared" si="5"/>
+        <v>353.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
@@ -5136,43 +6159,55 @@
       <c r="G87" s="4">
         <v>352</v>
       </c>
-      <c r="H87" s="5">
-        <v>349</v>
+      <c r="H87" s="12">
+        <f t="shared" si="3"/>
+        <v>347.8</v>
       </c>
       <c r="I87" s="5">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J87" s="5">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K87" s="5">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L87" s="5">
-        <v>351</v>
-      </c>
-      <c r="M87" s="2">
+        <v>346</v>
+      </c>
+      <c r="M87" s="5">
+        <v>351</v>
+      </c>
+      <c r="N87" s="12">
+        <f t="shared" si="4"/>
+        <v>348.6</v>
+      </c>
+      <c r="O87" s="2">
         <v>345</v>
       </c>
-      <c r="N87" s="3">
+      <c r="P87" s="3">
         <v>345</v>
       </c>
-      <c r="O87" s="3">
-        <v>353</v>
-      </c>
-      <c r="P87" s="3">
+      <c r="Q87" s="3">
+        <v>353</v>
+      </c>
+      <c r="R87" s="3">
         <v>344</v>
       </c>
-      <c r="Q87" s="4">
-        <v>353</v>
+      <c r="S87" s="4">
+        <v>353</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="5"/>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="O1:S1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
